--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -13,9 +13,173 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+  <si>
+    <t>LED Stringn Animation Project Plan  [PO5_LSAN]</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Discription</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Assignation Date</t>
+  </si>
+  <si>
+    <t>Estimated Time</t>
+  </si>
+  <si>
+    <t>Actual Delivery Date</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Assigned to</t>
+  </si>
+  <si>
+    <t>Estimate Date</t>
+  </si>
+  <si>
+    <t>Make Template to the CYRS document</t>
+  </si>
+  <si>
+    <t>TASK001</t>
+  </si>
+  <si>
+    <t>Menna</t>
+  </si>
+  <si>
+    <t>Week1</t>
+  </si>
+  <si>
+    <t>Week2</t>
+  </si>
+  <si>
+    <t>Week3</t>
+  </si>
+  <si>
+    <t>Week4</t>
+  </si>
+  <si>
+    <t>Week5</t>
+  </si>
+  <si>
+    <t>Week6</t>
+  </si>
+  <si>
+    <t>Week7</t>
+  </si>
+  <si>
+    <t>Make Template to the SRS document</t>
+  </si>
+  <si>
+    <t>TASK002</t>
+  </si>
+  <si>
+    <t>Mohanad</t>
+  </si>
+  <si>
+    <t>Make Template to the HIS document</t>
+  </si>
+  <si>
+    <t>TASK003</t>
+  </si>
+  <si>
+    <t>TASK004</t>
+  </si>
+  <si>
+    <t>TASK005</t>
+  </si>
+  <si>
+    <t>TASK006</t>
+  </si>
+  <si>
+    <t>TASK007</t>
+  </si>
+  <si>
+    <t>TASK008</t>
+  </si>
+  <si>
+    <t>TASK009</t>
+  </si>
+  <si>
+    <t>TASK010</t>
+  </si>
+  <si>
+    <t>TASK011</t>
+  </si>
+  <si>
+    <t>TASK012</t>
+  </si>
+  <si>
+    <t>TASK013</t>
+  </si>
+  <si>
+    <t>TASK014</t>
+  </si>
+  <si>
+    <t>TASK015</t>
+  </si>
+  <si>
+    <t>Waleed</t>
+  </si>
+  <si>
+    <t>Make Template to the SIQ document</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>CYRS_TASK001_V1</t>
+  </si>
+  <si>
+    <t>TASK016</t>
+  </si>
+  <si>
+    <t>TASK017</t>
+  </si>
+  <si>
+    <t>TASK018</t>
+  </si>
+  <si>
+    <t>TASK019</t>
+  </si>
+  <si>
+    <t>SRS_TASK002_V1</t>
+  </si>
+  <si>
+    <t>HIS_TASK003_V1</t>
+  </si>
+  <si>
+    <t>SIQ_TASK004_V1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asseigned </t>
+  </si>
+  <si>
+    <t>Members:</t>
+  </si>
+  <si>
+    <t>Team Lead: Youssef Kamal</t>
+  </si>
+  <si>
+    <t>Estimate Time</t>
+  </si>
+  <si>
+    <t>Waleed Adel - Sara Abd ElRahman - Mennatullah Mostafa - Mohanad Sallam</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23,16 +187,57 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -40,18 +245,237 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +522,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +557,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +765,606 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="45" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="3"/>
+    </row>
+    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="3"/>
+    </row>
+    <row r="3" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="3"/>
+    </row>
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="13">
+        <v>43851</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="16"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="23"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="18">
+        <v>43851</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="19"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="25"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="18">
+        <v>43851</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="19"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="25"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="18">
+        <v>43851</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="19"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="25"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="26"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="25"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="26"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="25"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="26"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="25"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="26"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="25"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="26"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="25"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="26"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="25"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="26"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="25"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="26"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="25"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="26"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="25"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="26"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="25"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="26"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="25"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="26"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="25"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="26"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="25"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="26"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="25"/>
+    </row>
+    <row r="23" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="27"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:S3"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J23">
+      <formula1>"Asseigned , In progress , done , Revised"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -106,9 +106,6 @@
     <t>Mohanad</t>
   </si>
   <si>
-    <t>HIS_TASK003_V1</t>
-  </si>
-  <si>
     <t>TASK003</t>
   </si>
   <si>
@@ -188,6 +185,9 @@
   </si>
   <si>
     <t>24h</t>
+  </si>
+  <si>
+    <t>HSI_TASK003_V1</t>
   </si>
 </sst>
 </file>
@@ -499,16 +499,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -526,6 +516,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -743,7 +743,7 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -762,77 +762,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="29" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="29" t="s">
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
       <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -901,13 +901,13 @@
       <c r="D5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="25">
         <v>43851</v>
       </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
       <c r="J5" s="11" t="s">
         <v>25</v>
       </c>
@@ -932,7 +932,7 @@
       <c r="D6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="26">
         <v>43851</v>
       </c>
       <c r="F6" s="1"/>
@@ -952,32 +952,32 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="D7" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="26">
+        <v>43851</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="32">
-        <v>43851</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="34" t="s">
+      <c r="H7" s="28" t="s">
         <v>56</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>57</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K7" s="17"/>
       <c r="L7" s="15"/>
@@ -989,32 +989,32 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="C8" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="D8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="E8" s="26">
+        <v>43851</v>
+      </c>
+      <c r="F8" s="29">
+        <v>43852</v>
+      </c>
+      <c r="G8" s="29">
+        <v>43854</v>
+      </c>
+      <c r="H8" s="30" t="s">
         <v>36</v>
-      </c>
-      <c r="E8" s="32">
-        <v>43851</v>
-      </c>
-      <c r="F8" s="35">
-        <v>43852</v>
-      </c>
-      <c r="G8" s="35">
-        <v>43854</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>37</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K8" s="17"/>
       <c r="L8" s="15"/>
@@ -1028,7 +1028,7 @@
       <c r="A9" s="14"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
@@ -1049,7 +1049,7 @@
       <c r="A10" s="14"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
@@ -1070,7 +1070,7 @@
       <c r="A11" s="14"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
@@ -1091,7 +1091,7 @@
       <c r="A12" s="14"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
@@ -1112,7 +1112,7 @@
       <c r="A13" s="14"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
@@ -1133,7 +1133,7 @@
       <c r="A14" s="14"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
@@ -1154,7 +1154,7 @@
       <c r="A15" s="14"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
@@ -1175,7 +1175,7 @@
       <c r="A16" s="14"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
@@ -1196,7 +1196,7 @@
       <c r="A17" s="14"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
@@ -1217,7 +1217,7 @@
       <c r="A18" s="14"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
@@ -1238,7 +1238,7 @@
       <c r="A19" s="14"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
@@ -1259,7 +1259,7 @@
       <c r="A20" s="14"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
@@ -1280,7 +1280,7 @@
       <c r="A21" s="14"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
@@ -1301,7 +1301,7 @@
       <c r="A22" s="14"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
@@ -1322,7 +1322,7 @@
       <c r="A23" s="20"/>
       <c r="B23" s="21"/>
       <c r="C23" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toshiba\Downloads\ITI\SW Engineering\SWProject\SW deliveries log\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
   <si>
     <t>LED Stringn Animation Project Plan  [PO5_LSAN]</t>
   </si>
@@ -188,6 +193,9 @@
   </si>
   <si>
     <t>HSI_TASK003_V1</t>
+  </si>
+  <si>
+    <t>23/01/2020</t>
   </si>
 </sst>
 </file>
@@ -537,6 +545,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -743,7 +754,7 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -935,12 +946,18 @@
       <c r="E6" s="26">
         <v>43851</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>56</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="16" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="K6" s="17"/>
       <c r="L6" s="15"/>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toshiba\Downloads\ITI\SW Engineering\SWProject\SW deliveries log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI_intake40\software_engineer\SW_Team_LEDString\master\SW deliveries log\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
   <si>
     <t>LED Stringn Animation Project Plan  [PO5_LSAN]</t>
   </si>
@@ -96,9 +96,6 @@
     <t>Menna</t>
   </si>
   <si>
-    <t xml:space="preserve">Asseigned </t>
-  </si>
-  <si>
     <t>SRS_TASK002_V1</t>
   </si>
   <si>
@@ -196,6 +193,9 @@
   </si>
   <si>
     <t>23/01/2020</t>
+  </si>
+  <si>
+    <t>1h</t>
   </si>
 </sst>
 </file>
@@ -480,7 +480,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -534,6 +534,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -753,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -915,12 +918,18 @@
       <c r="E5" s="25">
         <v>43851</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
+      <c r="F5" s="37">
+        <v>43853</v>
+      </c>
+      <c r="G5" s="37">
+        <v>43853</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>58</v>
+      </c>
       <c r="I5" s="27"/>
       <c r="J5" s="11" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="K5" s="12"/>
       <c r="L5" s="10"/>
@@ -932,32 +941,32 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="C6" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="D6" s="15" t="s">
         <v>28</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>29</v>
       </c>
       <c r="E6" s="26">
         <v>43851</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K6" s="17"/>
       <c r="L6" s="15"/>
@@ -969,32 +978,32 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>30</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>31</v>
       </c>
       <c r="E7" s="26">
         <v>43851</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G7" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="28" t="s">
         <v>55</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>56</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K7" s="17"/>
       <c r="L7" s="15"/>
@@ -1006,16 +1015,16 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="C8" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="D8" s="15" t="s">
         <v>34</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>35</v>
       </c>
       <c r="E8" s="26">
         <v>43851</v>
@@ -1027,11 +1036,11 @@
         <v>43854</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K8" s="17"/>
       <c r="L8" s="15"/>
@@ -1045,7 +1054,7 @@
       <c r="A9" s="14"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
@@ -1066,7 +1075,7 @@
       <c r="A10" s="14"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
@@ -1087,7 +1096,7 @@
       <c r="A11" s="14"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
@@ -1108,7 +1117,7 @@
       <c r="A12" s="14"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
@@ -1129,7 +1138,7 @@
       <c r="A13" s="14"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
@@ -1150,7 +1159,7 @@
       <c r="A14" s="14"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
@@ -1171,7 +1180,7 @@
       <c r="A15" s="14"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
@@ -1192,7 +1201,7 @@
       <c r="A16" s="14"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
@@ -1213,7 +1222,7 @@
       <c r="A17" s="14"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
@@ -1234,7 +1243,7 @@
       <c r="A18" s="14"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
@@ -1255,7 +1264,7 @@
       <c r="A19" s="14"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
@@ -1276,7 +1285,7 @@
       <c r="A20" s="14"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
@@ -1297,7 +1306,7 @@
       <c r="A21" s="14"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
@@ -1318,7 +1327,7 @@
       <c r="A22" s="14"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
@@ -1339,7 +1348,7 @@
       <c r="A23" s="20"/>
       <c r="B23" s="21"/>
       <c r="C23" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
   <si>
     <t>LED Stringn Animation Project Plan  [PO5_LSAN]</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>1h</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
@@ -526,6 +529,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -534,9 +540,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -776,77 +779,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="36" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="36" t="s">
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
       <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -918,18 +921,20 @@
       <c r="E5" s="25">
         <v>43851</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="31">
         <v>43853</v>
       </c>
-      <c r="G5" s="37">
+      <c r="G5" s="31">
         <v>43853</v>
       </c>
       <c r="H5" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="27"/>
+      <c r="I5" s="31">
+        <v>43853</v>
+      </c>
       <c r="J5" s="11" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K5" s="12"/>
       <c r="L5" s="10"/>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI_intake40\software_engineer\SW_Team_LEDString\master\SW deliveries log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SWE\PO5_LSAN\SW deliveries log\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -198,7 +198,7 @@
     <t>1h</t>
   </si>
   <si>
-    <t>done</t>
+    <t>Revised</t>
   </si>
 </sst>
 </file>
@@ -414,15 +414,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -477,6 +468,19 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -498,18 +502,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -542,6 +545,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -760,7 +764,7 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -779,77 +783,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="37" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="37" t="s">
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
       <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -918,46 +922,46 @@
       <c r="D5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="24">
         <v>43851</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="30">
         <v>43853</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="30">
         <v>43853</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="30">
         <v>43853</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="K5" s="12"/>
+      <c r="K5" s="37"/>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
-      <c r="Q5" s="13"/>
+      <c r="Q5" s="12"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="25">
         <v>43851</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -966,409 +970,409 @@
       <c r="G6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="27" t="s">
         <v>55</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="18"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="17"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="25">
         <v>43851</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="28" t="s">
+      <c r="H7" s="27" t="s">
         <v>55</v>
       </c>
       <c r="I7" s="1"/>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="17"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="18"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="17"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="25">
         <v>43851</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="28">
         <v>43852</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="28">
         <v>43854</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="29" t="s">
         <v>35</v>
       </c>
       <c r="I8" s="1"/>
-      <c r="J8" s="19" t="s">
+      <c r="J8" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="K8" s="17"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="18"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="17"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="18"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="17"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="18"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="17"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="18"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="17"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="18"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="17"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="18"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="17"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="18"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="17"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="18"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="17"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15" t="s">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="18"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="17"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="18"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="17"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15" t="s">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="18"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="17"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="18"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="17"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15" t="s">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="18"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="17"/>
     </row>
     <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15" t="s">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="18"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="17"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15" t="s">
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="18"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="17"/>
     </row>
     <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21" t="s">
+      <c r="A23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="23"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="22"/>
     </row>
     <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SWE\PO5_LSAN\SW deliveries log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SW engineering\SIQbranch\SW deliveries log\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304D9815-7CAD-4138-A74E-2B7A2DC5A78A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
   <si>
-    <t>LED Stringn Animation Project Plan  [PO5_LSAN]</t>
-  </si>
-  <si>
     <t>Team Lead: Youssef Kamal</t>
   </si>
   <si>
@@ -199,12 +197,15 @@
   </si>
   <si>
     <t>Revised</t>
+  </si>
+  <si>
+    <t>LED String Animation Project Plan  [PO5_LSAN]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
@@ -535,6 +536,7 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -545,7 +547,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -760,11 +761,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -783,144 +784,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="36" t="s">
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="36" t="s">
+      <c r="I1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
       <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="N4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="O4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>24</v>
       </c>
       <c r="E5" s="24">
         <v>43851</v>
@@ -932,15 +933,15 @@
         <v>43853</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I5" s="30">
         <v>43853</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" s="37"/>
+        <v>58</v>
+      </c>
+      <c r="K5" s="31"/>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
@@ -950,32 +951,32 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="C6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="D6" s="14" t="s">
         <v>27</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>28</v>
       </c>
       <c r="E6" s="25">
         <v>43851</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K6" s="16"/>
       <c r="L6" s="14"/>
@@ -987,32 +988,32 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>29</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>30</v>
       </c>
       <c r="E7" s="25">
         <v>43851</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G7" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="27" t="s">
         <v>54</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>55</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K7" s="16"/>
       <c r="L7" s="14"/>
@@ -1024,16 +1025,16 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="C8" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="D8" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>34</v>
       </c>
       <c r="E8" s="25">
         <v>43851</v>
@@ -1045,11 +1046,11 @@
         <v>43854</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K8" s="16"/>
       <c r="L8" s="14"/>
@@ -1063,7 +1064,7 @@
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -1084,7 +1085,7 @@
       <c r="A10" s="13"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -1105,7 +1106,7 @@
       <c r="A11" s="13"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -1126,7 +1127,7 @@
       <c r="A12" s="13"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
@@ -1147,7 +1148,7 @@
       <c r="A13" s="13"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
@@ -1168,7 +1169,7 @@
       <c r="A14" s="13"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
@@ -1189,7 +1190,7 @@
       <c r="A15" s="13"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
@@ -1210,7 +1211,7 @@
       <c r="A16" s="13"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
@@ -1231,7 +1232,7 @@
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
@@ -1252,7 +1253,7 @@
       <c r="A18" s="13"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
@@ -1273,7 +1274,7 @@
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
@@ -1294,7 +1295,7 @@
       <c r="A20" s="13"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
@@ -1315,7 +1316,7 @@
       <c r="A21" s="13"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
@@ -1336,7 +1337,7 @@
       <c r="A22" s="13"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
@@ -1357,7 +1358,7 @@
       <c r="A23" s="19"/>
       <c r="B23" s="20"/>
       <c r="C23" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
@@ -2359,7 +2360,7 @@
     <mergeCell ref="I1:S3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J5:J23">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J5:J23" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Asseigned,In progress,done,Revised"</formula1>
     </dataValidation>
   </dataValidations>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SW engineering\SIQbranch\SW deliveries log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SW engineering\Master\SW deliveries log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304D9815-7CAD-4138-A74E-2B7A2DC5A78A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F47F9E-6011-4264-ABF8-7072999CBD43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
   <si>
     <t>Team Lead: Youssef Kamal</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>LED String Animation Project Plan  [PO5_LSAN]</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
@@ -287,7 +290,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -484,11 +487,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -547,6 +561,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -764,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1048,11 +1063,13 @@
       <c r="H8" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="J8" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="16"/>
+        <v>60</v>
+      </c>
+      <c r="K8" s="38"/>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SW engineering\Master\SW deliveries log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SWE\test\SW deliveries log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F47F9E-6011-4264-ABF8-7072999CBD43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
   <si>
     <t>Team Lead: Youssef Kamal</t>
   </si>
@@ -200,15 +199,12 @@
   </si>
   <si>
     <t>LED String Animation Project Plan  [PO5_LSAN]</t>
-  </si>
-  <si>
-    <t>done</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
@@ -551,6 +547,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -561,7 +558,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -776,11 +772,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -799,77 +795,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="37" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="37" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
       <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -950,8 +946,8 @@
       <c r="H5" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="I5" s="30">
-        <v>43853</v>
+      <c r="I5" s="30" t="s">
+        <v>53</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>58</v>
@@ -1067,9 +1063,9 @@
         <v>53</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" s="38"/>
+        <v>58</v>
+      </c>
+      <c r="K8" s="32"/>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
@@ -2377,7 +2373,7 @@
     <mergeCell ref="I1:S3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J5:J23" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J5:J23">
       <formula1>"Asseigned,In progress,done,Revised"</formula1>
     </dataValidation>
   </dataValidations>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SWE\test\SW deliveries log\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
   <si>
     <t>Team Lead: Youssef Kamal</t>
   </si>
@@ -199,6 +194,9 @@
   </si>
   <si>
     <t>LED String Animation Project Plan  [PO5_LSAN]</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
@@ -776,7 +774,7 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1022,9 +1020,11 @@
       <c r="H7" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="J7" s="15" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="K7" s="16"/>
       <c r="L7" s="14"/>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SWE\PO5_LSAN\SW deliveries log\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
   <si>
     <t>Team Lead: Youssef Kamal</t>
   </si>
@@ -194,9 +199,6 @@
   </si>
   <si>
     <t>LED String Animation Project Plan  [PO5_LSAN]</t>
-  </si>
-  <si>
-    <t>done</t>
   </si>
 </sst>
 </file>
@@ -774,7 +776,7 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1024,9 +1026,9 @@
         <v>53</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="K7" s="16"/>
+        <v>58</v>
+      </c>
+      <c r="K7" s="32"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
   <si>
     <t>Team Lead: Youssef Kamal</t>
   </si>
@@ -199,6 +199,30 @@
   </si>
   <si>
     <t>LED String Animation Project Plan  [PO5_LSAN]</t>
+  </si>
+  <si>
+    <t>CYRS_TO_SRS_TASK005_V1</t>
+  </si>
+  <si>
+    <t>Break down Software requirments from CYRS to SRS requirments</t>
+  </si>
+  <si>
+    <t>Mohanad and Sara</t>
+  </si>
+  <si>
+    <t>24/1/2020</t>
+  </si>
+  <si>
+    <t>Asseigned</t>
+  </si>
+  <si>
+    <t>CYRS_TO_HSI_TASK006_V1</t>
+  </si>
+  <si>
+    <t>Break down Hardware requirments from CYRS to HIS requirments</t>
+  </si>
+  <si>
+    <t>Walid and Menna</t>
   </si>
 </sst>
 </file>
@@ -260,7 +284,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,6 +309,24 @@
         <bgColor rgb="FFFBD4B4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -498,7 +540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -558,6 +600,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -775,16 +832,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.75" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
     <col min="2" max="2" width="39.375" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="15.125" customWidth="1"/>
     <col min="6" max="6" width="15.25" customWidth="1"/>
     <col min="7" max="7" width="18.125" customWidth="1"/>
@@ -990,7 +1047,7 @@
         <v>35</v>
       </c>
       <c r="K6" s="16"/>
-      <c r="L6" s="14"/>
+      <c r="L6" s="40"/>
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -1075,42 +1132,62 @@
       <c r="P8" s="14"/>
       <c r="Q8" s="17"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
+    <row r="9" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>61</v>
+      </c>
       <c r="C9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
+      <c r="D9" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>63</v>
+      </c>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
+      <c r="J9" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" s="45"/>
+      <c r="L9" s="44"/>
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
       <c r="Q9" s="17"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
+    <row r="10" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>66</v>
+      </c>
       <c r="C10" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
+      <c r="D10" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>63</v>
+      </c>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
+      <c r="J10" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="45"/>
+      <c r="L10" s="44"/>
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
       <c r="O10" s="14"/>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="67">
   <si>
     <t>Team Lead: Youssef Kamal</t>
   </si>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t>48 h</t>
-  </si>
-  <si>
-    <t>In progress</t>
   </si>
   <si>
     <t>TASK005</t>
@@ -284,7 +281,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -311,12 +308,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -540,7 +531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -559,7 +550,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -590,6 +580,20 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -600,21 +604,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -832,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -852,77 +842,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="38" t="s">
+      <c r="A1" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="38" t="s">
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
       <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -991,25 +981,25 @@
       <c r="D5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="23">
         <v>43851</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="29">
         <v>43853</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="29">
         <v>43853</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I5" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" s="31"/>
+      <c r="K5" s="30"/>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
@@ -1030,36 +1020,38 @@
       <c r="D6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="24">
         <v>43851</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="J6" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="40"/>
+        <v>57</v>
+      </c>
+      <c r="K6" s="31"/>
+      <c r="L6" s="44"/>
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
-      <c r="Q6" s="17"/>
+      <c r="Q6" s="16"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>51</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>28</v>
@@ -1067,31 +1059,31 @@
       <c r="D7" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="24">
         <v>43851</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="27" t="s">
-        <v>54</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" s="32"/>
+        <v>57</v>
+      </c>
+      <c r="K7" s="31"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
-      <c r="Q7" s="17"/>
+      <c r="Q7" s="16"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -1106,99 +1098,99 @@
       <c r="D8" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="24">
         <v>43851</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="27">
         <v>43852</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="27">
         <v>43854</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="H8" s="28" t="s">
         <v>34</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" s="32"/>
+        <v>52</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="31"/>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
-      <c r="Q8" s="17"/>
+      <c r="Q8" s="16"/>
     </row>
     <row r="9" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="C9" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="41" t="s">
+      <c r="E9" s="34" t="s">
         <v>62</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>63</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="K9" s="45"/>
-      <c r="L9" s="44"/>
+        <v>63</v>
+      </c>
+      <c r="K9" s="37"/>
+      <c r="L9" s="36"/>
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
-      <c r="Q9" s="17"/>
+      <c r="Q9" s="16"/>
     </row>
     <row r="10" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="C10" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="42" t="s">
-        <v>63</v>
+      <c r="E10" s="34" t="s">
+        <v>62</v>
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="K10" s="45"/>
-      <c r="L10" s="44"/>
+        <v>63</v>
+      </c>
+      <c r="K10" s="37"/>
+      <c r="L10" s="36"/>
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
       <c r="O10" s="14"/>
       <c r="P10" s="14"/>
-      <c r="Q10" s="17"/>
+      <c r="Q10" s="16"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -1213,13 +1205,13 @@
       <c r="N11" s="14"/>
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
-      <c r="Q11" s="17"/>
+      <c r="Q11" s="16"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
@@ -1234,13 +1226,13 @@
       <c r="N12" s="14"/>
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
-      <c r="Q12" s="17"/>
+      <c r="Q12" s="16"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
@@ -1255,13 +1247,13 @@
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
-      <c r="Q13" s="17"/>
+      <c r="Q13" s="16"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
@@ -1276,13 +1268,13 @@
       <c r="N14" s="14"/>
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
-      <c r="Q14" s="17"/>
+      <c r="Q14" s="16"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
@@ -1297,13 +1289,13 @@
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
-      <c r="Q15" s="17"/>
+      <c r="Q15" s="16"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
@@ -1318,13 +1310,13 @@
       <c r="N16" s="14"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
-      <c r="Q16" s="17"/>
+      <c r="Q16" s="16"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
@@ -1339,13 +1331,13 @@
       <c r="N17" s="14"/>
       <c r="O17" s="14"/>
       <c r="P17" s="14"/>
-      <c r="Q17" s="17"/>
+      <c r="Q17" s="16"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
@@ -1360,13 +1352,13 @@
       <c r="N18" s="14"/>
       <c r="O18" s="14"/>
       <c r="P18" s="14"/>
-      <c r="Q18" s="17"/>
+      <c r="Q18" s="16"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
@@ -1381,13 +1373,13 @@
       <c r="N19" s="14"/>
       <c r="O19" s="14"/>
       <c r="P19" s="14"/>
-      <c r="Q19" s="17"/>
+      <c r="Q19" s="16"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
@@ -1402,13 +1394,13 @@
       <c r="N20" s="14"/>
       <c r="O20" s="14"/>
       <c r="P20" s="14"/>
-      <c r="Q20" s="17"/>
+      <c r="Q20" s="16"/>
     </row>
     <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
@@ -1423,13 +1415,13 @@
       <c r="N21" s="14"/>
       <c r="O21" s="14"/>
       <c r="P21" s="14"/>
-      <c r="Q21" s="17"/>
+      <c r="Q21" s="16"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
@@ -1444,28 +1436,28 @@
       <c r="N22" s="14"/>
       <c r="O22" s="14"/>
       <c r="P22" s="14"/>
-      <c r="Q22" s="17"/>
+      <c r="Q22" s="16"/>
     </row>
     <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="22"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="21"/>
     </row>
     <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
   <si>
     <t>Team Lead: Youssef Kamal</t>
   </si>
@@ -220,6 +220,15 @@
   </si>
   <si>
     <t>Walid and Menna</t>
+  </si>
+  <si>
+    <t>REV_TO_CYRS_TASK007_V1</t>
+  </si>
+  <si>
+    <t>25/1/2020</t>
+  </si>
+  <si>
+    <t>Do the changes required in the review sheet to CYRS document</t>
   </si>
 </sst>
 </file>
@@ -281,7 +290,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -318,6 +327,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -531,7 +546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -543,7 +558,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
@@ -594,6 +608,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -604,7 +619,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -822,8 +849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -969,58 +996,58 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="22">
         <v>43851</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="28">
         <v>43853</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="28">
         <v>43853</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="K5" s="30"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="12"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="11"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="23">
         <v>43851</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -1029,435 +1056,445 @@
       <c r="G6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="25" t="s">
         <v>53</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="K6" s="31"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="16"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="15"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="23">
         <v>43851</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="25" t="s">
         <v>53</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="K7" s="31"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="16"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="15"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="23">
         <v>43851</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="26">
         <v>43852</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="26">
         <v>43854</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="H8" s="27" t="s">
         <v>34</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="K8" s="31"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="16"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="15"/>
     </row>
     <row r="9" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="15" t="s">
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="K9" s="37"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="16"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="15"/>
     </row>
     <row r="10" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="15" t="s">
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="37"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="16"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="15"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14" t="s">
+    <row r="11" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="16"/>
+      <c r="D11" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11" s="13"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="15"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="16"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="15"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="16"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="15"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="16"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="15"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="16"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="15"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14" t="s">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="16"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="15"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14" t="s">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="16"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="15"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14" t="s">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="16"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="15"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14" t="s">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="16"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="15"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14" t="s">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="16"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="15"/>
     </row>
     <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14" t="s">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="16"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="15"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14" t="s">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="16"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="15"/>
     </row>
     <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19" t="s">
+      <c r="A23" s="17"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="21"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="20"/>
     </row>
     <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SWE\PO5_LSAN\SW deliveries log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO.SXM1\Documents\GitHub\PO5_LSAN\SW deliveries log\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CDD6C0-CFEB-45B0-9096-03B5CF99DDFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="73">
   <si>
     <t>Team Lead: Youssef Kamal</t>
   </si>
@@ -229,12 +230,21 @@
   </si>
   <si>
     <t>Do the changes required in the review sheet to CYRS document</t>
+  </si>
+  <si>
+    <t>28/1/2020</t>
+  </si>
+  <si>
+    <t>29/1/2020</t>
+  </si>
+  <si>
+    <t>In progress</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
@@ -546,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -609,16 +619,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -631,6 +631,19 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -846,11 +859,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -869,77 +882,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="43" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="43" t="s">
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
       <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -996,7 +1009,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="41" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -1005,7 +1018,7 @@
       <c r="C5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="42" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="22">
@@ -1035,7 +1048,7 @@
       <c r="Q5" s="11"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="40" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -1074,7 +1087,7 @@
       <c r="Q6" s="15"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="40" t="s">
         <v>54</v>
       </c>
       <c r="B7" s="21" t="s">
@@ -1113,7 +1126,7 @@
       <c r="Q7" s="15"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="40" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="13" t="s">
@@ -1167,12 +1180,18 @@
       <c r="E9" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="F9" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>53</v>
+      </c>
       <c r="I9" s="13"/>
-      <c r="J9" s="14" t="s">
-        <v>63</v>
+      <c r="J9" s="49" t="s">
+        <v>72</v>
       </c>
       <c r="K9" s="36"/>
       <c r="L9" s="35"/>
@@ -1214,10 +1233,10 @@
       <c r="Q10" s="15"/>
     </row>
     <row r="11" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="39" t="s">
         <v>69</v>
       </c>
       <c r="C11" s="13" t="s">
@@ -1237,7 +1256,7 @@
         <v>63</v>
       </c>
       <c r="K11" s="13"/>
-      <c r="L11" s="44"/>
+      <c r="L11" s="38"/>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
@@ -2481,7 +2500,7 @@
     <mergeCell ref="I1:S3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J5:J23">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J5:J23" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Asseigned,In progress,done,Revised"</formula1>
     </dataValidation>
   </dataValidations>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="72">
   <si>
     <t>Team Lead: Youssef Kamal</t>
   </si>
@@ -210,9 +210,6 @@
     <t>24/1/2020</t>
   </si>
   <si>
-    <t>Asseigned</t>
-  </si>
-  <si>
     <t>CYRS_TO_HSI_TASK006_V1</t>
   </si>
   <si>
@@ -229,6 +226,15 @@
   </si>
   <si>
     <t>Do the changes required in the review sheet to CYRS document</t>
+  </si>
+  <si>
+    <t>29/1/2020</t>
+  </si>
+  <si>
+    <t>30/1/2020</t>
+  </si>
+  <si>
+    <t>In progress</t>
   </si>
 </sst>
 </file>
@@ -546,7 +552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -609,16 +615,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -630,6 +626,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -850,7 +859,7 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -869,77 +878,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="43" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="43" t="s">
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
       <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -996,7 +1005,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="41" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -1005,7 +1014,7 @@
       <c r="C5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="42" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="22">
@@ -1035,7 +1044,7 @@
       <c r="Q5" s="11"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="40" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -1074,7 +1083,7 @@
       <c r="Q6" s="15"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="40" t="s">
         <v>54</v>
       </c>
       <c r="B7" s="21" t="s">
@@ -1113,7 +1122,7 @@
       <c r="Q7" s="15"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="40" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="13" t="s">
@@ -1167,12 +1176,18 @@
       <c r="E9" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="F9" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>53</v>
+      </c>
       <c r="I9" s="13"/>
-      <c r="J9" s="14" t="s">
-        <v>63</v>
+      <c r="J9" s="49" t="s">
+        <v>71</v>
       </c>
       <c r="K9" s="36"/>
       <c r="L9" s="35"/>
@@ -1184,26 +1199,32 @@
     </row>
     <row r="10" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="31" t="s">
         <v>64</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>65</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+      <c r="F10" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>53</v>
+      </c>
       <c r="I10" s="13"/>
-      <c r="J10" s="14" t="s">
-        <v>63</v>
+      <c r="J10" s="49" t="s">
+        <v>71</v>
       </c>
       <c r="K10" s="36"/>
       <c r="L10" s="35"/>
@@ -1214,11 +1235,11 @@
       <c r="Q10" s="15"/>
     </row>
     <row r="11" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="45" t="s">
-        <v>69</v>
+      <c r="A11" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>68</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>37</v>
@@ -1227,17 +1248,23 @@
         <v>23</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+        <v>67</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>53</v>
+      </c>
       <c r="I11" s="13"/>
-      <c r="J11" s="14" t="s">
-        <v>63</v>
+      <c r="J11" s="49" t="s">
+        <v>71</v>
       </c>
       <c r="K11" s="13"/>
-      <c r="L11" s="44"/>
+      <c r="L11" s="38"/>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO.SXM1\Documents\GitHub\PO5_LSAN\SW deliveries log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SWE\PO5_LSAN\SW deliveries log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CDD6C0-CFEB-45B0-9096-03B5CF99DDFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="73">
   <si>
     <t>Team Lead: Youssef Kamal</t>
   </si>
@@ -244,7 +243,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
@@ -632,6 +631,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -641,9 +643,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -859,7 +858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
@@ -882,77 +881,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="48" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="48" t="s">
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
       <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -1190,7 +1189,7 @@
         <v>53</v>
       </c>
       <c r="I9" s="13"/>
-      <c r="J9" s="49" t="s">
+      <c r="J9" s="43" t="s">
         <v>72</v>
       </c>
       <c r="K9" s="36"/>
@@ -1219,7 +1218,9 @@
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+      <c r="H10" s="33" t="s">
+        <v>53</v>
+      </c>
       <c r="I10" s="13"/>
       <c r="J10" s="14" t="s">
         <v>63</v>
@@ -1250,7 +1251,9 @@
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+      <c r="H11" s="33" t="s">
+        <v>53</v>
+      </c>
       <c r="I11" s="13"/>
       <c r="J11" s="14" t="s">
         <v>63</v>
@@ -2500,7 +2503,7 @@
     <mergeCell ref="I1:S3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J5:J23" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J5:J23">
       <formula1>"Asseigned,In progress,done,Revised"</formula1>
     </dataValidation>
   </dataValidations>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SWE\PO5_LSAN\SW deliveries log\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
   <si>
     <t>Team Lead: Youssef Kamal</t>
   </si>
@@ -33,9 +28,6 @@
     <t>Task</t>
   </si>
   <si>
-    <t>Discription</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -216,9 +208,6 @@
     <t>CYRS_TO_HSI_TASK006_V1</t>
   </si>
   <si>
-    <t>Break down Hardware requirments from CYRS to HIS requirments</t>
-  </si>
-  <si>
     <t>Walid and Menna</t>
   </si>
   <si>
@@ -238,6 +227,15 @@
   </si>
   <si>
     <t>In progress</t>
+  </si>
+  <si>
+    <t>Break down Hardware requirments from CYRS to HSI requirments</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
@@ -247,7 +245,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,12 +273,6 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -296,6 +288,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -561,9 +567,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -574,12 +577,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -589,13 +592,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -631,8 +634,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -861,8 +867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -873,7 +879,7 @@
     <col min="4" max="4" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="15.125" customWidth="1"/>
     <col min="6" max="6" width="15.25" customWidth="1"/>
-    <col min="7" max="7" width="18.125" customWidth="1"/>
+    <col min="7" max="7" width="21.625" customWidth="1"/>
     <col min="8" max="8" width="19.5" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
     <col min="10" max="10" width="10.75" customWidth="1"/>
@@ -882,7 +888,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="45"/>
       <c r="C1" s="45"/>
@@ -958,565 +964,571 @@
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="N4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="O4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="22">
+      <c r="E5" s="19">
         <v>43851</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="25">
         <v>43853</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="25">
         <v>43853</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" s="29"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="11"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="8"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="C6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="23">
+      <c r="E6" s="20">
         <v>43851</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="15"/>
+        <v>51</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="27"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="12"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="21" t="s">
+      <c r="A7" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="20">
+        <v>43851</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="23">
-        <v>43851</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="25" t="s">
+      <c r="H7" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="25" t="s">
-        <v>53</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="15"/>
+        <v>51</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="27"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="12"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="C8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="E8" s="20">
+        <v>43851</v>
+      </c>
+      <c r="F8" s="23">
+        <v>43852</v>
+      </c>
+      <c r="G8" s="23">
+        <v>43854</v>
+      </c>
+      <c r="H8" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="23">
-        <v>43851</v>
-      </c>
-      <c r="F8" s="26">
-        <v>43852</v>
-      </c>
-      <c r="G8" s="26">
-        <v>43854</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>34</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="15"/>
+        <v>51</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" s="27"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="12"/>
     </row>
     <row r="9" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="C9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="32" t="s">
+      <c r="E9" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="H9" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="K9" s="36"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="15"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="12"/>
     </row>
     <row r="10" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="K10" s="36"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="15"/>
+      <c r="E10" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" s="33"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="12"/>
     </row>
     <row r="11" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="15"/>
+      <c r="C11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="10"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="12"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="15"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="12"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="15"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="12"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="15"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="12"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="15"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="12"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="15"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="12"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="15"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="12"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="15"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="12"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="15"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="12"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="15"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="12"/>
     </row>
     <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="15"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="12"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="15"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="12"/>
     </row>
     <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="20"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="17"/>
     </row>
     <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO.SXM1\Documents\GitHub\PO5_LSAN\SW deliveries log\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9F5082-1175-4177-94D7-786966AB0890}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="73">
   <si>
     <t>Team Lead: Youssef Kamal</t>
   </si>
@@ -224,9 +230,6 @@
   </si>
   <si>
     <t>29/1/2020</t>
-  </si>
-  <si>
-    <t>In progress</t>
   </si>
   <si>
     <t>Break down Hardware requirments from CYRS to HSI requirments</t>
@@ -241,7 +244,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
@@ -864,11 +867,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -965,7 +968,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" s="40" t="s">
         <v>4</v>
@@ -1194,9 +1197,11 @@
       <c r="H9" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="10"/>
+      <c r="I9" s="30" t="s">
+        <v>69</v>
+      </c>
       <c r="J9" s="43" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K9" s="33"/>
       <c r="L9" s="32"/>
@@ -1211,7 +1216,7 @@
         <v>63</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>35</v>
@@ -1235,7 +1240,7 @@
         <v>69</v>
       </c>
       <c r="J10" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K10" s="33"/>
       <c r="L10" s="32"/>
@@ -2515,7 +2520,7 @@
     <mergeCell ref="I1:S3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J5:J23">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J5:J23" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Asseigned,In progress,done,Revised"</formula1>
     </dataValidation>
   </dataValidations>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO.SXM1\Documents\GitHub\PO5_LSAN\SW deliveries log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SWE\PO5_LSAN\SW deliveries log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9F5082-1175-4177-94D7-786966AB0890}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="72">
   <si>
     <t>Team Lead: Youssef Kamal</t>
   </si>
@@ -206,9 +205,6 @@
   </si>
   <si>
     <t>24/1/2020</t>
-  </si>
-  <si>
-    <t>Asseigned</t>
   </si>
   <si>
     <t>CYRS_TO_HSI_TASK006_V1</t>
@@ -244,7 +240,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
@@ -352,7 +348,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -553,6 +549,15 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -621,10 +626,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -653,6 +656,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -867,11 +872,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -890,108 +895,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="49" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="49" t="s">
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
       <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="40" t="s">
+      <c r="B4" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="40" t="s">
+      <c r="H4" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="42" t="s">
+      <c r="J4" s="40" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="3" t="s">
@@ -1017,7 +1022,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="36" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -1026,7 +1031,7 @@
       <c r="C5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="37" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="19">
@@ -1056,7 +1061,7 @@
       <c r="Q5" s="8"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="35" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -1087,7 +1092,7 @@
         <v>56</v>
       </c>
       <c r="K6" s="27"/>
-      <c r="L6" s="34"/>
+      <c r="L6" s="33"/>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
@@ -1095,7 +1100,7 @@
       <c r="Q6" s="12"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="35" t="s">
         <v>53</v>
       </c>
       <c r="B7" s="18" t="s">
@@ -1134,7 +1139,7 @@
       <c r="Q7" s="12"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="35" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1189,22 +1194,22 @@
         <v>61</v>
       </c>
       <c r="F9" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="30" t="s">
         <v>68</v>
-      </c>
-      <c r="G9" s="30" t="s">
-        <v>69</v>
       </c>
       <c r="H9" s="30" t="s">
         <v>52</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="J9" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="K9" s="33"/>
-      <c r="L9" s="32"/>
+        <v>68</v>
+      </c>
+      <c r="J9" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="32"/>
+      <c r="L9" s="48"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
@@ -1213,37 +1218,37 @@
     </row>
     <row r="10" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10" s="30" t="s">
         <v>61</v>
       </c>
       <c r="F10" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="30" t="s">
         <v>68</v>
-      </c>
-      <c r="G10" s="30" t="s">
-        <v>69</v>
       </c>
       <c r="H10" s="30" t="s">
         <v>52</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="J10" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="K10" s="33"/>
-      <c r="L10" s="32"/>
+        <v>68</v>
+      </c>
+      <c r="J10" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="K10" s="32"/>
+      <c r="L10" s="48"/>
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
@@ -1251,11 +1256,11 @@
       <c r="Q10" s="12"/>
     </row>
     <row r="11" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>67</v>
+      <c r="A11" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>66</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>36</v>
@@ -1264,19 +1269,25 @@
         <v>22</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
+        <v>65</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>68</v>
+      </c>
       <c r="H11" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="43" t="s">
-        <v>62</v>
+      <c r="I11" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" s="41" t="s">
+        <v>56</v>
       </c>
       <c r="K11" s="10"/>
-      <c r="L11" s="35"/>
+      <c r="L11" s="49"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
@@ -2520,7 +2531,7 @@
     <mergeCell ref="I1:S3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J5:J23" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J5:J23">
       <formula1>"Asseigned,In progress,done,Revised"</formula1>
     </dataValidation>
   </dataValidations>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="71">
   <si>
     <t>Team Lead: Youssef Kamal</t>
   </si>
@@ -229,9 +229,6 @@
   </si>
   <si>
     <t>Break down Hardware requirments from CYRS to HSI requirments</t>
-  </si>
-  <si>
-    <t>done</t>
   </si>
   <si>
     <t>Description</t>
@@ -646,6 +643,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -656,8 +655,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -876,7 +873,7 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -895,77 +892,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="47" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="47" t="s">
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
       <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -973,7 +970,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="38" t="s">
         <v>4</v>
@@ -1206,10 +1203,10 @@
         <v>68</v>
       </c>
       <c r="J9" s="41" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="K9" s="32"/>
-      <c r="L9" s="48"/>
+      <c r="L9" s="42"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
@@ -1245,10 +1242,10 @@
         <v>68</v>
       </c>
       <c r="J10" s="41" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="K10" s="32"/>
-      <c r="L10" s="48"/>
+      <c r="L10" s="42"/>
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
@@ -1287,7 +1284,7 @@
         <v>56</v>
       </c>
       <c r="K11" s="10"/>
-      <c r="L11" s="49"/>
+      <c r="L11" s="43"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="88">
   <si>
     <t>Team Lead: Youssef Kamal</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Actual Start Date</t>
   </si>
   <si>
-    <t>Estimate Delivery Date</t>
-  </si>
-  <si>
     <t>Estimate Time</t>
   </si>
   <si>
@@ -232,6 +229,60 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>SIQ_Repair_TASK008_V1</t>
+  </si>
+  <si>
+    <t>Asseigned</t>
+  </si>
+  <si>
+    <t>Walid</t>
+  </si>
+  <si>
+    <t>Ask the costmer all the questiones that are mentioned in the meeting using the SIQ board (Can we use tri state flip switch in TI switch?, be more specefic in the welcome mode and the TI states, etc….)</t>
+  </si>
+  <si>
+    <t>MAKE_CLEAR_CRS_TASK010_V1</t>
+  </si>
+  <si>
+    <t>MAKE_DESCRIPTION_TASK011_V1</t>
+  </si>
+  <si>
+    <t>CYRS_BREAKDOWN_TASK012_V1</t>
+  </si>
+  <si>
+    <t>Add ID to all three requirments in CRS requirments so we can track them in CYRS and HIS</t>
+  </si>
+  <si>
+    <t>HSI_ADD_REQ_ID_TASK013_V1</t>
+  </si>
+  <si>
+    <t>CRS_ADD_ID_TASK009_V1</t>
+  </si>
+  <si>
+    <t>Break Down CRS to more than one CYRS requirment with more clear requirments. Also use the costmer answers from SIQ sheet. Also use the CRS requirment ID to track down the origin of each CYRS requirment. Also fix the versions in the history table.</t>
+  </si>
+  <si>
+    <t>Add ID to each HIS component. Also mention The ID from CRS that this component covers. Also add description to Hardware if needed.</t>
+  </si>
+  <si>
+    <t>Make a good description to CYRS, HSI and SRS and use the same block diagram from HIS in all of them. Also remove all unused tiles like features in HIS. Also remove</t>
+  </si>
+  <si>
+    <t>SRS_REFORM_TASK014_V1</t>
+  </si>
+  <si>
+    <t>Sara and Mohanad</t>
+  </si>
+  <si>
+    <t>Reforme SRS to match the new CYRS (Released). NB: Two Branches hase to be created by Team lader.</t>
+  </si>
+  <si>
+    <t>Remove questions asked by developer to developer.</t>
+  </si>
+  <si>
+    <t>Dead Line</t>
   </si>
 </sst>
 </file>
@@ -301,7 +352,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -344,6 +395,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="20">
     <border>
@@ -566,7 +623,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -576,75 +633,72 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -872,13 +926,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="29.875" customWidth="1"/>
     <col min="2" max="2" width="39.375" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
@@ -892,146 +946,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="49" t="s">
+      <c r="A1" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="49" t="s">
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
       <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="38" t="s">
+      <c r="B4" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="I4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="J4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="40" t="s">
+      <c r="K4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="19">
+      <c r="E5" s="24">
         <v>43851</v>
       </c>
       <c r="F5" s="25">
@@ -1040,508 +1094,606 @@
       <c r="G5" s="25">
         <v>43853</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K5" s="26"/>
+      <c r="K5" s="12"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
-      <c r="Q5" s="8"/>
+      <c r="Q5" s="7"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="C6" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="D6" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="20">
+      <c r="E6" s="28">
         <v>43851</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="F6" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="J6" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="K6" s="27"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="12"/>
+      <c r="I6" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" s="13"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="9"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="18" t="s">
+      <c r="A7" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="28">
+        <v>43851</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="20">
-        <v>43851</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="22" t="s">
+      <c r="H7" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="K7" s="27"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="12"/>
+      <c r="I7" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="13"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="9"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="C8" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="E8" s="28">
+        <v>43851</v>
+      </c>
+      <c r="F8" s="31">
+        <v>43852</v>
+      </c>
+      <c r="G8" s="31">
+        <v>43854</v>
+      </c>
+      <c r="H8" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="20">
-        <v>43851</v>
-      </c>
-      <c r="F8" s="23">
-        <v>43852</v>
-      </c>
-      <c r="G8" s="23">
-        <v>43854</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="K8" s="27"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="12"/>
+      <c r="I8" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" s="13"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="9"/>
     </row>
     <row r="9" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="C9" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="29" t="s">
+      <c r="E9" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="J9" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="K9" s="32"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="12"/>
+      <c r="H9" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="14"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="9"/>
     </row>
     <row r="10" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="30" t="s">
+      <c r="E10" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="G10" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="J10" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="K10" s="32"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="12"/>
+      <c r="H10" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="14"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="9"/>
     </row>
     <row r="11" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="F11" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="G11" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="9"/>
+    </row>
+    <row r="12" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="J11" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="K11" s="10"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="12"/>
+      <c r="D12" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="34">
+        <v>43892</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="34">
+        <v>43923</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="21"/>
+      <c r="J12" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="9"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10" t="s">
+    <row r="13" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="12"/>
+      <c r="D13" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="34">
+        <v>43892</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="34">
+        <v>43923</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="21"/>
+      <c r="J13" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="9"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10" t="s">
+    <row r="14" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="12"/>
+      <c r="D14" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="34">
+        <v>43892</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="34">
+        <v>43923</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="21"/>
+      <c r="J14" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="9"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10" t="s">
+    <row r="15" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="12"/>
+      <c r="D15" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="34">
+        <v>43892</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="34">
+        <v>43923</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="21"/>
+      <c r="J15" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="9"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10" t="s">
+    <row r="16" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="12"/>
+      <c r="D16" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="34">
+        <v>43923</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="34">
+        <v>43953</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="21"/>
+      <c r="J16" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="9"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10" t="s">
+    <row r="17" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="12"/>
+      <c r="D17" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="34">
+        <v>43923</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="34">
+        <v>43953</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" s="21"/>
+      <c r="J17" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="9"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10" t="s">
+    <row r="18" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="12"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="12"/>
+      <c r="D18" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="34">
+        <v>43953</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="34">
+        <v>43984</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" s="21"/>
+      <c r="J18" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="9"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="12"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="9"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="12"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="9"/>
     </row>
     <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="12"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="9"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="12"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="9"/>
     </row>
     <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="17"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="11"/>
     </row>
     <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SWE\PO5_LSAN\SW deliveries log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO.SXM1\Documents\GitHub\PO5_LSAN\SW deliveries log\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A00553-D813-407B-B86A-C9C4E703EAC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="89">
   <si>
     <t>Team Lead: Youssef Kamal</t>
   </si>
@@ -283,12 +284,15 @@
   </si>
   <si>
     <t>Dead Line</t>
+  </si>
+  <si>
+    <t>In progress</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
@@ -623,7 +627,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -708,6 +712,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -923,11 +930,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1361,7 +1368,9 @@
       <c r="E12" s="34">
         <v>43892</v>
       </c>
-      <c r="F12" s="21"/>
+      <c r="F12" s="45">
+        <v>43863</v>
+      </c>
       <c r="G12" s="34">
         <v>43923</v>
       </c>
@@ -1370,7 +1379,7 @@
       </c>
       <c r="I12" s="21"/>
       <c r="J12" s="30" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
@@ -1431,7 +1440,9 @@
       <c r="E14" s="34">
         <v>43892</v>
       </c>
-      <c r="F14" s="21"/>
+      <c r="F14" s="34">
+        <v>43863</v>
+      </c>
       <c r="G14" s="34">
         <v>43923</v>
       </c>
@@ -1440,7 +1451,7 @@
       </c>
       <c r="I14" s="21"/>
       <c r="J14" s="30" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
@@ -2680,7 +2691,7 @@
     <mergeCell ref="I1:S3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J5:J23">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J5:J23" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Asseigned,In progress,done,Revised"</formula1>
     </dataValidation>
   </dataValidations>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO.SXM1\Documents\GitHub\PO5_LSAN\SW deliveries log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SWE\PO5_LSAN\SW deliveries log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A00553-D813-407B-B86A-C9C4E703EAC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="88">
   <si>
     <t>Team Lead: Youssef Kamal</t>
   </si>
@@ -284,15 +283,12 @@
   </si>
   <si>
     <t>Dead Line</t>
-  </si>
-  <si>
-    <t>In progress</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
@@ -703,6 +699,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -712,9 +711,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -930,11 +926,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -953,77 +949,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="44" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="44" t="s">
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
       <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -1368,7 +1364,7 @@
       <c r="E12" s="34">
         <v>43892</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="39">
         <v>43863</v>
       </c>
       <c r="G12" s="34">
@@ -1379,7 +1375,7 @@
       </c>
       <c r="I12" s="21"/>
       <c r="J12" s="30" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
@@ -1451,7 +1447,7 @@
       </c>
       <c r="I14" s="21"/>
       <c r="J14" s="30" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
@@ -2691,7 +2687,7 @@
     <mergeCell ref="I1:S3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J5:J23" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J5:J23">
       <formula1>"Asseigned,In progress,done,Revised"</formula1>
     </dataValidation>
   </dataValidations>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -929,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1373,7 +1373,9 @@
       <c r="H12" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="I12" s="21"/>
+      <c r="I12" s="34">
+        <v>43892</v>
+      </c>
       <c r="J12" s="30" t="s">
         <v>55</v>
       </c>
@@ -1445,7 +1447,9 @@
       <c r="H14" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="21"/>
+      <c r="I14" s="34">
+        <v>43892</v>
+      </c>
       <c r="J14" s="30" t="s">
         <v>55</v>
       </c>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SWE\PO5_LSAN\SW deliveries log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toshiba\Documents\GitHub\PO5_LSAN\SW deliveries log\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="89">
   <si>
     <t>Team Lead: Youssef Kamal</t>
   </si>
@@ -283,12 +283,15 @@
   </si>
   <si>
     <t>Dead Line</t>
+  </si>
+  <si>
+    <t>In progress</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
@@ -930,7 +933,7 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1486,7 +1489,7 @@
       </c>
       <c r="I15" s="21"/>
       <c r="J15" s="30" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toshiba\Documents\GitHub\PO5_LSAN\SW deliveries log\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="90">
   <si>
     <t>Team Lead: Youssef Kamal</t>
   </si>
@@ -286,12 +281,15 @@
   </si>
   <si>
     <t>In progress</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
@@ -932,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1406,16 +1404,20 @@
       <c r="E13" s="34">
         <v>43892</v>
       </c>
-      <c r="F13" s="21"/>
+      <c r="F13" s="34">
+        <v>43892</v>
+      </c>
       <c r="G13" s="34">
         <v>43923</v>
       </c>
       <c r="H13" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="21"/>
+      <c r="I13" s="34">
+        <v>43892</v>
+      </c>
       <c r="J13" s="30" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
@@ -1548,18 +1550,22 @@
         <v>72</v>
       </c>
       <c r="E17" s="34">
+        <v>43892</v>
+      </c>
+      <c r="F17" s="34">
+        <v>43892</v>
+      </c>
+      <c r="G17" s="34">
         <v>43923</v>
-      </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="34">
-        <v>43953</v>
       </c>
       <c r="H17" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="21"/>
+      <c r="I17" s="34">
+        <v>43892</v>
+      </c>
       <c r="J17" s="30" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SWE\PO5_LSAN\SW deliveries log\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
@@ -930,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1482,7 +1487,9 @@
       <c r="E15" s="34">
         <v>43892</v>
       </c>
-      <c r="F15" s="21"/>
+      <c r="F15" s="34">
+        <v>43892</v>
+      </c>
       <c r="G15" s="34">
         <v>43923</v>
       </c>
@@ -1550,22 +1557,18 @@
         <v>72</v>
       </c>
       <c r="E17" s="34">
-        <v>43892</v>
-      </c>
-      <c r="F17" s="34">
-        <v>43892</v>
-      </c>
+        <v>43923</v>
+      </c>
+      <c r="F17" s="34"/>
       <c r="G17" s="34">
-        <v>43923</v>
+        <v>43953</v>
       </c>
       <c r="H17" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="34">
-        <v>43892</v>
-      </c>
+      <c r="I17" s="34"/>
       <c r="J17" s="30" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="93">
   <si>
     <t>Team Lead: Youssef Kamal</t>
   </si>
@@ -276,9 +276,6 @@
     <t>Sara and Mohanad</t>
   </si>
   <si>
-    <t>Reforme SRS to match the new CYRS (Released). NB: Two Branches hase to be created by Team lader.</t>
-  </si>
-  <si>
     <t>Remove questions asked by developer to developer.</t>
   </si>
   <si>
@@ -289,6 +286,18 @@
   </si>
   <si>
     <t>done</t>
+  </si>
+  <si>
+    <t>SIQ_AKNOWLAGE_TASK015_V1</t>
+  </si>
+  <si>
+    <t>Reforme SRS to match the new CYRS (Released). NB: Two Branches hase to be created by Team leader.</t>
+  </si>
+  <si>
+    <t>Read the new answers in the SIQ and aknowlage them</t>
+  </si>
+  <si>
+    <t>12h</t>
   </si>
 </sst>
 </file>
@@ -935,8 +944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1048,7 +1057,7 @@
         <v>7</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>8</v>
@@ -1359,7 +1368,7 @@
         <v>70</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>36</v>
@@ -1422,7 +1431,7 @@
         <v>43892</v>
       </c>
       <c r="J13" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
@@ -1498,7 +1507,7 @@
       </c>
       <c r="I15" s="21"/>
       <c r="J15" s="30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
@@ -1583,7 +1592,7 @@
         <v>83</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>42</v>
@@ -1613,22 +1622,36 @@
       <c r="P18" s="8"/>
       <c r="Q18" s="9"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="21"/>
+    <row r="19" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>91</v>
+      </c>
       <c r="C19" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
+      <c r="D19" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="34">
+        <v>43923</v>
+      </c>
       <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
+      <c r="G19" s="34">
+        <v>43923</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>92</v>
+      </c>
       <c r="I19" s="21"/>
-      <c r="J19" s="30"/>
+      <c r="J19" s="30" t="s">
+        <v>71</v>
+      </c>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
+      <c r="M19" s="38"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>Team Lead: Youssef Kamal</t>
   </si>
@@ -283,9 +283,6 @@
   </si>
   <si>
     <t>In progress</t>
-  </si>
-  <si>
-    <t>done</t>
   </si>
   <si>
     <t>SIQ_AKNOWLAGE_TASK015_V1</t>
@@ -944,7 +941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -1427,11 +1424,9 @@
       <c r="H13" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="34">
-        <v>43892</v>
-      </c>
+      <c r="I13" s="34"/>
       <c r="J13" s="30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
@@ -1592,7 +1587,7 @@
         <v>83</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>42</v>
@@ -1624,10 +1619,10 @@
     </row>
     <row r="19" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>43</v>
@@ -1643,7 +1638,7 @@
         <v>43923</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I19" s="21"/>
       <c r="J19" s="30" t="s">

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SWE\PO5_LSAN\SW deliveries log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO.SXM1\Documents\GitHub\PO5_LSAN\SW deliveries log\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20103C58-DC16-484E-8102-22E014B5ED8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -300,7 +301,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
@@ -938,11 +939,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1633,7 +1634,9 @@
       <c r="E19" s="34">
         <v>43923</v>
       </c>
-      <c r="F19" s="21"/>
+      <c r="F19" s="34">
+        <v>43923</v>
+      </c>
       <c r="G19" s="34">
         <v>43923</v>
       </c>
@@ -1642,7 +1645,7 @@
       </c>
       <c r="I19" s="21"/>
       <c r="J19" s="30" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
@@ -2721,7 +2724,7 @@
     <mergeCell ref="I1:S3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J5:J23">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J5:J23" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Asseigned,In progress,done,Revised"</formula1>
     </dataValidation>
   </dataValidations>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO.SXM1\Documents\GitHub\PO5_LSAN\SW deliveries log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20103C58-DC16-484E-8102-22E014B5ED8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2170278D-952C-4A8F-9855-B2E835F89BFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="93">
   <si>
     <t>Team Lead: Youssef Kamal</t>
   </si>
@@ -296,6 +296,9 @@
   </si>
   <si>
     <t>12h</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
@@ -942,7 +945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -1643,9 +1646,11 @@
       <c r="H19" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="I19" s="21"/>
+      <c r="I19" s="34">
+        <v>43923</v>
+      </c>
       <c r="J19" s="30" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO.SXM1\Documents\GitHub\PO5_LSAN\SW deliveries log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SWE\PO5_LSAN\SW deliveries log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2170278D-952C-4A8F-9855-B2E835F89BFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>Team Lead: Youssef Kamal</t>
   </si>
@@ -296,15 +295,12 @@
   </si>
   <si>
     <t>12h</t>
-  </si>
-  <si>
-    <t>done</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
@@ -942,11 +938,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1650,7 +1646,7 @@
         <v>43923</v>
       </c>
       <c r="J19" s="30" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
@@ -2729,7 +2725,7 @@
     <mergeCell ref="I1:S3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J5:J23" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J5:J23">
       <formula1>"Asseigned,In progress,done,Revised"</formula1>
     </dataValidation>
   </dataValidations>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SWE\PO5_LSAN\SW deliveries log\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="93">
   <si>
     <t>Team Lead: Youssef Kamal</t>
   </si>
@@ -295,6 +290,9 @@
   </si>
   <si>
     <t>12h</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
@@ -941,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1424,9 +1422,11 @@
       <c r="H13" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="34"/>
+      <c r="I13" s="34">
+        <v>43923</v>
+      </c>
       <c r="J13" s="30" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="94">
   <si>
     <t>Team Lead: Youssef Kamal</t>
   </si>
@@ -295,6 +295,12 @@
   </si>
   <si>
     <t>12h</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Pushhed on 4/2 but done on 3/2 and had been commited</t>
   </si>
 </sst>
 </file>
@@ -414,7 +420,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -495,21 +501,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -532,17 +523,6 @@
     <border>
       <left/>
       <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
@@ -569,15 +549,6 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -585,30 +556,6 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -631,50 +578,155 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -686,7 +738,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -695,7 +747,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -707,7 +759,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -723,6 +775,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -941,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -957,798 +1023,826 @@
     <col min="8" max="8" width="19.5" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
     <col min="10" max="10" width="10.75" customWidth="1"/>
-    <col min="11" max="26" width="7.625" customWidth="1"/>
+    <col min="11" max="17" width="7.625" customWidth="1"/>
+    <col min="18" max="18" width="9.75" customWidth="1"/>
+    <col min="19" max="26" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="45" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="45" t="s">
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
       <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
+    <row r="3" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="41" t="s">
         <v>17</v>
+      </c>
+      <c r="R4" s="42" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="16">
         <v>43851</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="17">
         <v>43853</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="17">
         <v>43853</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="7"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="46"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="20">
         <v>43851</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J6" s="30" t="s">
+      <c r="J6" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="9"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="47"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="20">
         <v>43851</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J7" s="30" t="s">
+      <c r="J7" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="9"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="47"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="20">
         <v>43851</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="23">
         <v>43852</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="23">
         <v>43854</v>
       </c>
-      <c r="H8" s="32" t="s">
+      <c r="H8" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="33" t="s">
+      <c r="J8" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="9"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="47"/>
     </row>
     <row r="9" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="30" t="s">
+      <c r="J9" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="14"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="9"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="47"/>
     </row>
     <row r="10" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="H10" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="J10" s="30" t="s">
+      <c r="J10" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="K10" s="14"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="9"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="47"/>
     </row>
     <row r="11" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="30" t="s">
+      <c r="J11" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="K11" s="8"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="9"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="47"/>
     </row>
     <row r="12" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="26">
         <v>43892</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F12" s="31">
         <v>43863</v>
       </c>
-      <c r="G12" s="34">
+      <c r="G12" s="26">
         <v>43923</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="I12" s="34">
+      <c r="I12" s="26">
         <v>43892</v>
       </c>
-      <c r="J12" s="30" t="s">
+      <c r="J12" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="9"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="47"/>
     </row>
-    <row r="13" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+    <row r="13" spans="1:20" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="26">
         <v>43892</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="26">
         <v>43892</v>
       </c>
-      <c r="G13" s="34">
+      <c r="G13" s="26">
         <v>43923</v>
       </c>
-      <c r="H13" s="21" t="s">
+      <c r="H13" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="34"/>
-      <c r="J13" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="9"/>
+      <c r="I13" s="26">
+        <v>43923</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="49" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="14" spans="1:20" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="26">
         <v>43892</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="26">
         <v>43863</v>
       </c>
-      <c r="G14" s="34">
+      <c r="G14" s="26">
         <v>43923</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="34">
+      <c r="I14" s="26">
         <v>43892</v>
       </c>
-      <c r="J14" s="30" t="s">
+      <c r="J14" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="9"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="47"/>
     </row>
     <row r="15" spans="1:20" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="26">
         <v>43892</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="26">
         <v>43892</v>
       </c>
-      <c r="G15" s="34">
+      <c r="G15" s="26">
         <v>43923</v>
       </c>
-      <c r="H15" s="21" t="s">
+      <c r="H15" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="30" t="s">
+      <c r="I15" s="13"/>
+      <c r="J15" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="9"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="47"/>
     </row>
     <row r="16" spans="1:20" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="26">
         <v>43923</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="34">
+      <c r="F16" s="13"/>
+      <c r="G16" s="26">
         <v>43953</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="30" t="s">
+      <c r="I16" s="13"/>
+      <c r="J16" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="9"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="47"/>
     </row>
-    <row r="17" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
+    <row r="17" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="26">
         <v>43923</v>
       </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34">
+      <c r="F17" s="26"/>
+      <c r="G17" s="26">
         <v>43953</v>
       </c>
-      <c r="H17" s="21" t="s">
+      <c r="H17" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="34"/>
-      <c r="J17" s="30" t="s">
+      <c r="I17" s="26"/>
+      <c r="J17" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="9"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="47"/>
     </row>
-    <row r="18" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
+    <row r="18" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18" s="26">
         <v>43953</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="34">
+      <c r="F18" s="13"/>
+      <c r="G18" s="26">
         <v>43984</v>
       </c>
-      <c r="H18" s="21" t="s">
+      <c r="H18" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="30" t="s">
+      <c r="I18" s="13"/>
+      <c r="J18" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="9"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="47"/>
     </row>
-    <row r="19" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
+    <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19" s="26">
         <v>43923</v>
       </c>
-      <c r="F19" s="34">
+      <c r="F19" s="26">
         <v>43923</v>
       </c>
-      <c r="G19" s="34">
+      <c r="G19" s="26">
         <v>43923</v>
       </c>
-      <c r="H19" s="21" t="s">
+      <c r="H19" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="I19" s="34">
+      <c r="I19" s="26">
         <v>43923</v>
       </c>
-      <c r="J19" s="30" t="s">
+      <c r="J19" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="9"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="47"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21" t="s">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="9"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="47"/>
     </row>
-    <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21" t="s">
+    <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="9"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="47"/>
     </row>
-    <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21" t="s">
+    <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="9"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="47"/>
     </row>
-    <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36" t="s">
+    <row r="23" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="27"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="11"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="48"/>
     </row>
-    <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="95">
   <si>
     <t>Team Lead: Youssef Kamal</t>
   </si>
@@ -301,6 +301,9 @@
   </si>
   <si>
     <t>Pushhed on 4/2 but done on 3/2 and had been commited</t>
+  </si>
+  <si>
+    <t>48h</t>
   </si>
 </sst>
 </file>
@@ -766,16 +769,6 @@
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -789,6 +782,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1007,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1029,77 +1032,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="37" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="37" t="s">
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
       <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1133,28 +1136,28 @@
       <c r="J4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="39" t="s">
+      <c r="K4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="40" t="s">
+      <c r="L4" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="40" t="s">
+      <c r="M4" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="40" t="s">
+      <c r="N4" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="40" t="s">
+      <c r="O4" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="40" t="s">
+      <c r="P4" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="41" t="s">
+      <c r="Q4" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="42" t="s">
+      <c r="R4" s="36" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1190,13 +1193,13 @@
         <v>55</v>
       </c>
       <c r="K5" s="5"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="46"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="40"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
@@ -1235,8 +1238,8 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="47"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="41"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
@@ -1275,8 +1278,8 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="47"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="41"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
@@ -1315,8 +1318,8 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="47"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="41"/>
     </row>
     <row r="9" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
@@ -1355,8 +1358,8 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="47"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="41"/>
     </row>
     <row r="10" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
@@ -1395,8 +1398,8 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="47"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="41"/>
     </row>
     <row r="11" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
@@ -1435,8 +1438,8 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="47"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="41"/>
     </row>
     <row r="12" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
@@ -1475,8 +1478,8 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="47"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="41"/>
     </row>
     <row r="13" spans="1:20" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
@@ -1515,8 +1518,8 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="49" t="s">
+      <c r="Q13" s="38"/>
+      <c r="R13" s="43" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1557,8 +1560,8 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-      <c r="Q14" s="44"/>
-      <c r="R14" s="47"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="41"/>
     </row>
     <row r="15" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
@@ -1595,8 +1598,8 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="47"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="41"/>
     </row>
     <row r="16" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
@@ -1616,10 +1619,10 @@
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="26">
-        <v>43953</v>
+        <v>43984</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="I16" s="13"/>
       <c r="J16" s="22" t="s">
@@ -1631,8 +1634,8 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="47"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="41"/>
     </row>
     <row r="17" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
@@ -1667,8 +1670,8 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="47"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="41"/>
     </row>
     <row r="18" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
@@ -1684,11 +1687,11 @@
         <v>84</v>
       </c>
       <c r="E18" s="26">
-        <v>43953</v>
+        <v>43984</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="26">
-        <v>43984</v>
+        <v>44014</v>
       </c>
       <c r="H18" s="13" t="s">
         <v>51</v>
@@ -1703,8 +1706,8 @@
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="47"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="41"/>
     </row>
     <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
@@ -1743,8 +1746,8 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="47"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="41"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
@@ -1765,8 +1768,8 @@
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="47"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="41"/>
     </row>
     <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
@@ -1787,8 +1790,8 @@
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="47"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="41"/>
     </row>
     <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
@@ -1809,8 +1812,8 @@
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="47"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="41"/>
     </row>
     <row r="23" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="27"/>
@@ -1831,8 +1834,8 @@
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="48"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="42"/>
     </row>
     <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SWE\PO5_LSAN\SW deliveries log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toshiba\Documents\GitHub\PO5_LSAN\SW deliveries log\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -282,9 +282,6 @@
     <t>Dead Line</t>
   </si>
   <si>
-    <t>In progress</t>
-  </si>
-  <si>
     <t>SIQ_AKNOWLAGE_TASK015_V1</t>
   </si>
   <si>
@@ -304,12 +301,15 @@
   </si>
   <si>
     <t>48h</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
@@ -1010,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1158,7 +1158,7 @@
         <v>17</v>
       </c>
       <c r="R4" s="36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -1520,7 +1520,7 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="38"/>
       <c r="R13" s="43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="75" x14ac:dyDescent="0.25">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="I15" s="13"/>
       <c r="J15" s="22" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -1622,7 +1622,7 @@
         <v>43984</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I16" s="13"/>
       <c r="J16" s="22" t="s">
@@ -1678,7 +1678,7 @@
         <v>83</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>42</v>
@@ -1711,10 +1711,10 @@
     </row>
     <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>43</v>
@@ -1732,7 +1732,7 @@
         <v>43923</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I19" s="26">
         <v>43923</v>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toshiba\Documents\GitHub\PO5_LSAN\SW deliveries log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SWE\PO5_LSAN\SW deliveries log\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="94">
   <si>
     <t>Team Lead: Youssef Kamal</t>
   </si>
@@ -301,15 +301,12 @@
   </si>
   <si>
     <t>48h</t>
-  </si>
-  <si>
-    <t>done</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
@@ -1588,9 +1585,11 @@
       <c r="H15" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="I15" s="13"/>
+      <c r="I15" s="26">
+        <v>43923</v>
+      </c>
       <c r="J15" s="22" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SWE\PO5_LSAN\SW deliveries log\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="95">
   <si>
     <t>Team Lead: Youssef Kamal</t>
   </si>
@@ -301,6 +296,9 @@
   </si>
   <si>
     <t>48h</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
@@ -1007,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1652,16 +1650,20 @@
       <c r="E17" s="26">
         <v>43923</v>
       </c>
-      <c r="F17" s="26"/>
+      <c r="F17" s="26">
+        <v>43923</v>
+      </c>
       <c r="G17" s="26">
         <v>43953</v>
       </c>
       <c r="H17" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="26"/>
+      <c r="I17" s="26">
+        <v>43953</v>
+      </c>
       <c r="J17" s="22" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SWE\PO5_LSAN\SW deliveries log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI_intake40\software_engineer\SW_Team_LEDString\PO5_LSAN\PO5_LSAN\SW deliveries log\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="97">
   <si>
     <t>Team Lead: Youssef Kamal</t>
   </si>
@@ -307,6 +307,9 @@
   </si>
   <si>
     <t>HIS_COVER_SIQ_TASK016_V1</t>
+  </si>
+  <si>
+    <t>In progress</t>
   </si>
 </sst>
 </file>
@@ -786,6 +789,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -796,7 +800,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1015,7 +1018,7 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1036,77 +1039,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="49" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="49" t="s">
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
       <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1478,7 +1481,7 @@
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="50"/>
+      <c r="M12" s="44"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -1518,7 +1521,7 @@
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="50"/>
+      <c r="M13" s="44"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
@@ -1560,7 +1563,7 @@
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="50"/>
+      <c r="M14" s="44"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
@@ -1600,7 +1603,7 @@
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="50"/>
+      <c r="M15" s="44"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
@@ -1623,7 +1626,9 @@
       <c r="E16" s="26">
         <v>43923</v>
       </c>
-      <c r="F16" s="13"/>
+      <c r="F16" s="26">
+        <v>43953</v>
+      </c>
       <c r="G16" s="26">
         <v>43984</v>
       </c>
@@ -1632,7 +1637,7 @@
       </c>
       <c r="I16" s="13"/>
       <c r="J16" s="22" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -1676,7 +1681,7 @@
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="50"/>
+      <c r="M17" s="44"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
@@ -1752,7 +1757,7 @@
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-      <c r="M19" s="50"/>
+      <c r="M19" s="44"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SWE\PO5_LSAN\SW deliveries log\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="94">
   <si>
     <t>Team Lead: Youssef Kamal</t>
   </si>
@@ -296,9 +301,6 @@
   </si>
   <si>
     <t>48h</t>
-  </si>
-  <si>
-    <t>done</t>
   </si>
 </sst>
 </file>
@@ -1005,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1663,7 +1665,7 @@
         <v>43953</v>
       </c>
       <c r="J17" s="22" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="96">
   <si>
     <t>Team Lead: Youssef Kamal</t>
   </si>
@@ -301,6 +301,12 @@
   </si>
   <si>
     <t>48h</t>
+  </si>
+  <si>
+    <t>Cover all uncovered SIQ in HIS</t>
+  </si>
+  <si>
+    <t>HIS_COVER_SIQ_TASK016_V1</t>
   </si>
 </sst>
 </file>
@@ -695,7 +701,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -790,6 +796,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1007,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1471,7 +1478,7 @@
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="30"/>
+      <c r="M12" s="50"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -1511,7 +1518,7 @@
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="30"/>
+      <c r="M13" s="50"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
@@ -1553,7 +1560,7 @@
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="30"/>
+      <c r="M14" s="50"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
@@ -1593,7 +1600,7 @@
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="30"/>
+      <c r="M15" s="50"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
@@ -1669,7 +1676,7 @@
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="30"/>
+      <c r="M17" s="50"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
@@ -1745,7 +1752,7 @@
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-      <c r="M19" s="30"/>
+      <c r="M19" s="50"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
@@ -1753,21 +1760,35 @@
       <c r="R19" s="41"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="13"/>
+      <c r="A20" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>94</v>
+      </c>
       <c r="C20" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
+      <c r="D20" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="26">
+        <v>43953</v>
+      </c>
       <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
+      <c r="G20" s="26">
+        <v>43984</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="I20" s="13"/>
-      <c r="J20" s="22"/>
+      <c r="J20" s="22" t="s">
+        <v>71</v>
+      </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
+      <c r="M20" s="30"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SWE\PO5_LSAN\SW deliveries log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI_intake40\software_engineer\SW_Team_LEDString\PO5_LSAN\PO5_LSAN\SW deliveries log\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -309,7 +309,7 @@
     <t>HIS_COVER_SIQ_TASK016_V1</t>
   </si>
   <si>
-    <t>In progress</t>
+    <t>done</t>
   </si>
 </sst>
 </file>
@@ -1017,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI_intake40\software_engineer\SW_Team_LEDString\PO5_LSAN\PO5_LSAN\SW deliveries log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SWE\PO5_LSAN\SW deliveries log\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1018,7 +1018,7 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1702,11 +1702,11 @@
         <v>84</v>
       </c>
       <c r="E18" s="26">
-        <v>43984</v>
+        <v>44014</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="26">
-        <v>44014</v>
+        <v>44045</v>
       </c>
       <c r="H18" s="13" t="s">
         <v>51</v>
@@ -1782,7 +1782,7 @@
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="26">
-        <v>43984</v>
+        <v>44014</v>
       </c>
       <c r="H20" s="13" t="s">
         <v>90</v>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI_intake40\software_engineer\SW_Team_LEDString\PO5_LSAN\PO5_LSAN\SW deliveries log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SWE\PO5_LSAN\SW deliveries log\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="96">
   <si>
     <t>Team Lead: Youssef Kamal</t>
   </si>
@@ -307,9 +307,6 @@
   </si>
   <si>
     <t>HIS_COVER_SIQ_TASK016_V1</t>
-  </si>
-  <si>
-    <t>done</t>
   </si>
 </sst>
 </file>
@@ -1017,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1637,11 +1634,11 @@
       </c>
       <c r="I16" s="13"/>
       <c r="J16" s="22" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="30"/>
+      <c r="M16" s="44"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SWE\PO5_LSAN\SW deliveries log\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="97">
   <si>
     <t>Team Lead: Youssef Kamal</t>
   </si>
@@ -307,6 +302,9 @@
   </si>
   <si>
     <t>HIS_COVER_SIQ_TASK016_V1</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
@@ -1015,7 +1013,7 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1777,16 +1775,20 @@
       <c r="E20" s="26">
         <v>43953</v>
       </c>
-      <c r="F20" s="13"/>
+      <c r="F20" s="26">
+        <v>43953</v>
+      </c>
       <c r="G20" s="26">
         <v>44014</v>
       </c>
       <c r="H20" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="I20" s="13"/>
+      <c r="I20" s="26">
+        <v>44014</v>
+      </c>
       <c r="J20" s="22" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SWE\PO5_LSAN\SW deliveries log\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="96">
   <si>
     <t>Team Lead: Youssef Kamal</t>
   </si>
@@ -302,9 +307,6 @@
   </si>
   <si>
     <t>HIS_COVER_SIQ_TASK016_V1</t>
-  </si>
-  <si>
-    <t>done</t>
   </si>
 </sst>
 </file>
@@ -1012,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1788,7 +1790,7 @@
         <v>44014</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -1014,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1794,7 +1794,7 @@
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="30"/>
+      <c r="M20" s="44"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="98">
   <si>
     <t>Team Lead: Youssef Kamal</t>
   </si>
@@ -306,7 +306,13 @@
     <t>Cover all uncovered SIQ in HIS</t>
   </si>
   <si>
-    <t>HIS_COVER_SIQ_TASK016_V1</t>
+    <t>HSI_COVER_SIQ_TASK016_V1</t>
+  </si>
+  <si>
+    <t>Update CYRS and SRS with the block diagram from HIS document. This task should be done after finishing the SRS rightaway.</t>
+  </si>
+  <si>
+    <t>BLOCK_DIAG_UPDATE_TASK017_V1</t>
   </si>
 </sst>
 </file>
@@ -701,7 +707,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -787,6 +793,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1014,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1036,77 +1043,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="50" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="50" t="s">
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
       <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="48"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1485,7 +1492,7 @@
       <c r="Q12" s="38"/>
       <c r="R12" s="41"/>
     </row>
-    <row r="13" spans="1:20" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>79</v>
       </c>
@@ -1801,22 +1808,36 @@
       <c r="Q20" s="38"/>
       <c r="R20" s="41"/>
     </row>
-    <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="13"/>
+    <row r="21" spans="1:18" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>96</v>
+      </c>
       <c r="C21" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
+      <c r="D21" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="26">
+        <v>44014</v>
+      </c>
       <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
+      <c r="G21" s="26">
+        <v>44014</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="I21" s="13"/>
-      <c r="J21" s="22"/>
+      <c r="J21" s="22" t="s">
+        <v>71</v>
+      </c>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
+      <c r="M21" s="45"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="100">
   <si>
     <t>Team Lead: Youssef Kamal</t>
   </si>
@@ -313,6 +313,12 @@
   </si>
   <si>
     <t>BLOCK_DIAG_UPDATE_TASK017_V1</t>
+  </si>
+  <si>
+    <t>CYRS_6AND7_CHANGE_TASK018_V1</t>
+  </si>
+  <si>
+    <t>Change CYRS to follow the review sheet</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1028,7 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1845,21 +1851,37 @@
       <c r="R21" s="41"/>
     </row>
     <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="13"/>
+      <c r="A22" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>99</v>
+      </c>
       <c r="C22" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
+      <c r="D22" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="26">
+        <v>44014</v>
+      </c>
       <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="22"/>
+      <c r="G22" s="26">
+        <v>44014</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I22" s="26">
+        <v>44014</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>71</v>
+      </c>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
+      <c r="M22" s="30"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -1027,8 +1027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1877,11 +1877,11 @@
         <v>44014</v>
       </c>
       <c r="J22" s="22" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
-      <c r="M22" s="30"/>
+      <c r="M22" s="44"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="103">
   <si>
     <t>Team Lead: Youssef Kamal</t>
   </si>
@@ -319,6 +319,15 @@
   </si>
   <si>
     <t>Change CYRS to follow the review sheet</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>UPDATE_SRS_TASK019_V1</t>
+  </si>
+  <si>
+    <t>Update SRS according to CYRS 6 and 7</t>
   </si>
 </sst>
 </file>
@@ -713,20 +722,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -785,19 +790,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -809,6 +807,40 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1027,8 +1059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1037,7 +1069,7 @@
     <col min="2" max="2" width="39.375" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
-    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="15.75" customWidth="1"/>
     <col min="6" max="6" width="15.25" customWidth="1"/>
     <col min="7" max="7" width="21.625" customWidth="1"/>
     <col min="8" max="8" width="19.5" customWidth="1"/>
@@ -1049,866 +1081,884 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="51" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="51" t="s">
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
       <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="49"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="K4" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="34" t="s">
+      <c r="L4" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="34" t="s">
+      <c r="M4" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="34" t="s">
+      <c r="N4" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="34" t="s">
+      <c r="O4" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="34" t="s">
+      <c r="P4" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="35" t="s">
+      <c r="Q4" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="36" t="s">
+      <c r="R4" s="52" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="12">
         <v>43851</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="13">
         <v>43853</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="13">
         <v>43853</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="40"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="32"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="16">
         <v>43851</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="41"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="33"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="16">
         <v>43851</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="41"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="33"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="16">
         <v>43851</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="19">
         <v>43852</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="19">
         <v>43854</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="25" t="s">
+      <c r="J8" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="41"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="33"/>
     </row>
     <row r="9" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="22" t="s">
+      <c r="J9" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="41"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="33"/>
     </row>
     <row r="10" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="J10" s="22" t="s">
+      <c r="J10" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="41"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="33"/>
     </row>
     <row r="11" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="22" t="s">
+      <c r="J11" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="41"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="33"/>
     </row>
     <row r="12" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="22">
         <v>43892</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="27">
         <v>43863</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="22">
         <v>43923</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="I12" s="26">
+      <c r="I12" s="22">
         <v>43892</v>
       </c>
-      <c r="J12" s="22" t="s">
+      <c r="J12" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="41"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="33"/>
     </row>
     <row r="13" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="22">
         <v>43892</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="22">
         <v>43892</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="22">
         <v>43923</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="26">
+      <c r="I13" s="22">
         <v>43923</v>
       </c>
-      <c r="J13" s="22" t="s">
+      <c r="J13" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="43" t="s">
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="54" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="22">
         <v>43892</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="22">
         <v>43863</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="22">
         <v>43923</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="26">
+      <c r="I14" s="22">
         <v>43892</v>
       </c>
-      <c r="J14" s="22" t="s">
+      <c r="J14" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="41"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="33"/>
     </row>
     <row r="15" spans="1:20" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="22">
         <v>43892</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="22">
         <v>43892</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="22">
         <v>43923</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="I15" s="26">
+      <c r="I15" s="22">
         <v>43923</v>
       </c>
-      <c r="J15" s="22" t="s">
+      <c r="J15" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="41"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="53"/>
     </row>
     <row r="16" spans="1:20" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="22">
         <v>43923</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="22">
         <v>43953</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="22">
         <v>43984</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="22" t="s">
+      <c r="I16" s="9"/>
+      <c r="J16" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="41"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="33"/>
     </row>
     <row r="17" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="22">
         <v>43923</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="22">
         <v>43923</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="22">
         <v>43953</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="26">
+      <c r="I17" s="22">
         <v>43953</v>
       </c>
-      <c r="J17" s="22" t="s">
+      <c r="J17" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="41"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="33"/>
     </row>
     <row r="18" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="22">
         <v>44014</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="26">
+      <c r="F18" s="9"/>
+      <c r="G18" s="22">
         <v>44045</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="I18" s="13"/>
-      <c r="J18" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="41"/>
+      <c r="I18" s="22">
+        <v>44014</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="33"/>
     </row>
     <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="22">
         <v>43923</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="22">
         <v>43923</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="22">
         <v>43923</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="I19" s="26">
+      <c r="I19" s="22">
         <v>43923</v>
       </c>
-      <c r="J19" s="22" t="s">
+      <c r="J19" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="41"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="33"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="22">
         <v>43953</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F20" s="22">
         <v>43953</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="22">
         <v>44014</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="I20" s="26">
+      <c r="I20" s="22">
         <v>44014</v>
       </c>
-      <c r="J20" s="22" t="s">
+      <c r="J20" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="41"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="33"/>
     </row>
     <row r="21" spans="1:18" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="22">
         <v>44014</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="26">
+      <c r="F21" s="9"/>
+      <c r="G21" s="22">
         <v>44014</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="H21" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="22" t="s">
+      <c r="I21" s="9"/>
+      <c r="J21" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="41"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="33"/>
     </row>
     <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="22">
         <v>44014</v>
       </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="26">
+      <c r="F22" s="22">
         <v>44014</v>
       </c>
-      <c r="H22" s="13" t="s">
+      <c r="G22" s="22">
+        <v>44014</v>
+      </c>
+      <c r="H22" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="I22" s="26">
+      <c r="I22" s="22">
         <v>44014</v>
       </c>
-      <c r="J22" s="22" t="s">
+      <c r="J22" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="41"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="33"/>
     </row>
     <row r="23" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28" t="s">
+      <c r="A23" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="42"/>
+      <c r="D23" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="43">
+        <v>44014</v>
+      </c>
+      <c r="F23" s="24"/>
+      <c r="G23" s="43">
+        <v>44014</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="I23" s="43"/>
+      <c r="J23" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="34"/>
     </row>
     <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="102">
   <si>
     <t>Team Lead: Youssef Kamal</t>
   </si>
@@ -319,9 +319,6 @@
   </si>
   <si>
     <t>Change CYRS to follow the review sheet</t>
-  </si>
-  <si>
-    <t>In progress</t>
   </si>
   <si>
     <t>UPDATE_SRS_TASK019_V1</t>
@@ -722,7 +719,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -785,7 +782,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -798,6 +794,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -808,40 +837,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1060,7 +1056,7 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1081,132 +1077,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="42" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="42" t="s">
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
       <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="G4" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="H4" s="46" t="s">
+      <c r="H4" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="46" t="s">
+      <c r="I4" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="48" t="s">
+      <c r="J4" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="49" t="s">
+      <c r="K4" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="50" t="s">
+      <c r="L4" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="50" t="s">
+      <c r="M4" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="50" t="s">
+      <c r="N4" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="50" t="s">
+      <c r="O4" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="50" t="s">
+      <c r="P4" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="51" t="s">
+      <c r="Q4" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="52" t="s">
+      <c r="R4" s="44" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1242,13 +1238,13 @@
         <v>55</v>
       </c>
       <c r="K5" s="4"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="32"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="31"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
@@ -1287,8 +1283,8 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="33"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="32"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
@@ -1327,8 +1323,8 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="33"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="32"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
@@ -1367,8 +1363,8 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="33"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="32"/>
     </row>
     <row r="9" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
@@ -1407,8 +1403,8 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="33"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="32"/>
     </row>
     <row r="10" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
@@ -1447,8 +1443,8 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="33"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="32"/>
     </row>
     <row r="11" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
@@ -1487,8 +1483,8 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="33"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="32"/>
     </row>
     <row r="12" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
@@ -1506,7 +1502,7 @@
       <c r="E12" s="22">
         <v>43892</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="26">
         <v>43863</v>
       </c>
       <c r="G12" s="22">
@@ -1523,12 +1519,12 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="35"/>
+      <c r="M12" s="34"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="33"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="32"/>
     </row>
     <row r="13" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
@@ -1563,12 +1559,12 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="35"/>
+      <c r="M13" s="34"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="54" t="s">
+      <c r="Q13" s="29"/>
+      <c r="R13" s="46" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1605,12 +1601,12 @@
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="35"/>
+      <c r="M14" s="34"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="33"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="32"/>
     </row>
     <row r="15" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
@@ -1645,12 +1641,12 @@
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="35"/>
+      <c r="M15" s="34"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="53"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="45"/>
     </row>
     <row r="16" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
@@ -1683,12 +1679,12 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="35"/>
+      <c r="M16" s="34"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="33"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="32"/>
     </row>
     <row r="17" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
@@ -1723,12 +1719,12 @@
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="35"/>
+      <c r="M17" s="34"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="33"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="32"/>
     </row>
     <row r="18" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
@@ -1757,16 +1753,16 @@
         <v>44014</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="26"/>
+      <c r="M18" s="34"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="33"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="32"/>
     </row>
     <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
@@ -1801,12 +1797,12 @@
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="35"/>
+      <c r="M19" s="34"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="33"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="32"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
@@ -1841,12 +1837,12 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="35"/>
+      <c r="M20" s="34"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="33"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="32"/>
     </row>
     <row r="21" spans="1:18" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
@@ -1877,12 +1873,12 @@
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="36"/>
+      <c r="M21" s="35"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="33"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="32"/>
     </row>
     <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
@@ -1917,19 +1913,19 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
-      <c r="M22" s="35"/>
+      <c r="M22" s="34"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="33"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="32"/>
     </row>
     <row r="23" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" s="24" t="s">
         <v>101</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>102</v>
       </c>
       <c r="C23" s="24" t="s">
         <v>47</v>
@@ -1937,28 +1933,28 @@
       <c r="D23" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="43">
+      <c r="E23" s="36">
         <v>44014</v>
       </c>
       <c r="F23" s="24"/>
-      <c r="G23" s="43">
+      <c r="G23" s="36">
         <v>44014</v>
       </c>
       <c r="H23" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="I23" s="43"/>
+      <c r="I23" s="36"/>
       <c r="J23" s="25" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
-      <c r="M23" s="44"/>
+      <c r="M23" s="53"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="34"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="33"/>
     </row>
     <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -444,7 +444,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -715,11 +715,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -793,7 +804,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -827,6 +837,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -837,7 +848,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1055,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1151,58 +1163,58 @@
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="I4" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="41" t="s">
+      <c r="K4" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="42" t="s">
+      <c r="L4" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="42" t="s">
+      <c r="M4" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="42" t="s">
+      <c r="N4" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="42" t="s">
+      <c r="O4" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="42" t="s">
+      <c r="P4" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="43" t="s">
+      <c r="Q4" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="44" t="s">
+      <c r="R4" s="43" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1398,7 +1410,7 @@
         <v>55</v>
       </c>
       <c r="K9" s="5"/>
-      <c r="L9" s="7"/>
+      <c r="L9" s="53"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1519,7 +1531,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="34"/>
+      <c r="M12" s="54"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -1564,7 +1576,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="29"/>
-      <c r="R13" s="46" t="s">
+      <c r="R13" s="45" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1646,7 +1658,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="29"/>
-      <c r="R15" s="45"/>
+      <c r="R15" s="44"/>
     </row>
     <row r="16" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
@@ -1673,7 +1685,9 @@
       <c r="H16" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="I16" s="9"/>
+      <c r="I16" s="22">
+        <v>43984</v>
+      </c>
       <c r="J16" s="18" t="s">
         <v>55</v>
       </c>
@@ -1867,13 +1881,15 @@
       <c r="H21" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="I21" s="9"/>
+      <c r="I21" s="22">
+        <v>44014</v>
+      </c>
       <c r="J21" s="18" t="s">
         <v>71</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="35"/>
+      <c r="M21" s="34"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -1933,23 +1949,25 @@
       <c r="D23" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="36">
+      <c r="E23" s="35">
         <v>44014</v>
       </c>
       <c r="F23" s="24"/>
-      <c r="G23" s="36">
+      <c r="G23" s="35">
         <v>44014</v>
       </c>
       <c r="H23" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="I23" s="36"/>
+      <c r="I23" s="35">
+        <v>44014</v>
+      </c>
       <c r="J23" s="25" t="s">
         <v>55</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
-      <c r="M23" s="53"/>
+      <c r="M23" s="46"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="145">
   <si>
     <t>Team Lead: Youssef Kamal</t>
   </si>
@@ -325,6 +325,135 @@
   </si>
   <si>
     <t>Update SRS according to CYRS 6 and 7</t>
+  </si>
+  <si>
+    <t>TASK020</t>
+  </si>
+  <si>
+    <t>TASK021</t>
+  </si>
+  <si>
+    <t>TASK022</t>
+  </si>
+  <si>
+    <t>TASK023</t>
+  </si>
+  <si>
+    <t>TASK024</t>
+  </si>
+  <si>
+    <t>TASK025</t>
+  </si>
+  <si>
+    <t>TASK026</t>
+  </si>
+  <si>
+    <t>TASK027</t>
+  </si>
+  <si>
+    <t>TASK028</t>
+  </si>
+  <si>
+    <t>TASK029</t>
+  </si>
+  <si>
+    <t>TASK030</t>
+  </si>
+  <si>
+    <t>TASK031</t>
+  </si>
+  <si>
+    <t>TASK032</t>
+  </si>
+  <si>
+    <t>TASK033</t>
+  </si>
+  <si>
+    <t>TASK034</t>
+  </si>
+  <si>
+    <t>TASK035</t>
+  </si>
+  <si>
+    <t>TASK036</t>
+  </si>
+  <si>
+    <t>TASK037</t>
+  </si>
+  <si>
+    <t>TASK038</t>
+  </si>
+  <si>
+    <t>TASK039</t>
+  </si>
+  <si>
+    <t>TASK040</t>
+  </si>
+  <si>
+    <t>TASK041</t>
+  </si>
+  <si>
+    <t>TASK042</t>
+  </si>
+  <si>
+    <t>TASK043</t>
+  </si>
+  <si>
+    <t>TASK044</t>
+  </si>
+  <si>
+    <t>TASK045</t>
+  </si>
+  <si>
+    <t>TASK046</t>
+  </si>
+  <si>
+    <t>TASK047</t>
+  </si>
+  <si>
+    <t>TASK048</t>
+  </si>
+  <si>
+    <t>TASK049</t>
+  </si>
+  <si>
+    <t>TASK050</t>
+  </si>
+  <si>
+    <t>TASK051</t>
+  </si>
+  <si>
+    <t>TASK052</t>
+  </si>
+  <si>
+    <t>TASK053</t>
+  </si>
+  <si>
+    <t>TASK054</t>
+  </si>
+  <si>
+    <t>TASK055</t>
+  </si>
+  <si>
+    <t>TASK056</t>
+  </si>
+  <si>
+    <t>TASK057</t>
+  </si>
+  <si>
+    <t>TASK058</t>
+  </si>
+  <si>
+    <t>Update CYRS arrangment so than status and document history before table of content. Also change the colour of the ID</t>
+  </si>
+  <si>
+    <t>REARRANGE_CYRS_TASK020_V1</t>
+  </si>
+  <si>
+    <t>HIS_TASK21_V1</t>
+  </si>
+  <si>
+    <t>Update HIS with all the points mentioned in lecture</t>
   </si>
 </sst>
 </file>
@@ -334,7 +463,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,8 +522,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -443,8 +579,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -482,80 +624,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -569,17 +637,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -603,66 +660,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -671,17 +668,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -726,100 +712,235 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -831,25 +952,56 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1067,8 +1219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1089,932 +1241,1857 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="52" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="52" t="s">
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
       <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="H4" s="37" t="s">
+      <c r="H4" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="40" t="s">
+      <c r="K4" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="41" t="s">
+      <c r="L4" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="41" t="s">
+      <c r="M4" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="41" t="s">
+      <c r="N4" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="41" t="s">
+      <c r="O4" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="41" t="s">
+      <c r="P4" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="42" t="s">
+      <c r="Q4" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="43" t="s">
+      <c r="R4" s="37" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="40">
         <v>43851</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="41">
         <v>43853</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="41">
         <v>43853</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="31"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="11"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="46">
         <v>43851</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="32"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="12"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="46">
         <v>43851</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="J7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="32"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="12"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="46">
         <v>43851</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="48">
         <v>43852</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="48">
         <v>43854</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="J8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="32"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="12"/>
     </row>
     <row r="9" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="J9" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="32"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="12"/>
     </row>
     <row r="10" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="J10" s="18" t="s">
+      <c r="J10" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="32"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="12"/>
     </row>
     <row r="11" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="18" t="s">
+      <c r="J11" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="32"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="12"/>
     </row>
     <row r="12" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="26">
         <v>43892</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="50">
         <v>43863</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="26">
         <v>43923</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="26">
         <v>43892</v>
       </c>
-      <c r="J12" s="18" t="s">
+      <c r="J12" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="32"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="12"/>
     </row>
     <row r="13" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="26">
         <v>43892</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="26">
         <v>43892</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="26">
         <v>43923</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="26">
         <v>43923</v>
       </c>
-      <c r="J13" s="18" t="s">
+      <c r="J13" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="45" t="s">
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="16" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="26">
         <v>43892</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="26">
         <v>43863</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="26">
         <v>43923</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="26">
         <v>43892</v>
       </c>
-      <c r="J14" s="18" t="s">
+      <c r="J14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="32"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="12"/>
     </row>
     <row r="15" spans="1:20" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="26">
         <v>43892</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="26">
         <v>43892</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="26">
         <v>43923</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="26">
         <v>43923</v>
       </c>
-      <c r="J15" s="18" t="s">
+      <c r="J15" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="44"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="15"/>
     </row>
     <row r="16" spans="1:20" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="26">
         <v>43923</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="26">
         <v>43953</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="26">
         <v>43984</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I16" s="26">
         <v>43984</v>
       </c>
-      <c r="J16" s="18" t="s">
+      <c r="J16" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="32"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="12"/>
     </row>
     <row r="17" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="26">
         <v>43923</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="26">
         <v>43923</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="26">
         <v>43953</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17" s="26">
         <v>43953</v>
       </c>
-      <c r="J17" s="18" t="s">
+      <c r="J17" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="32"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="12"/>
     </row>
     <row r="18" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="26">
         <v>44014</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="22">
+      <c r="F18" s="25"/>
+      <c r="G18" s="26">
         <v>44045</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I18" s="26">
         <v>44014</v>
       </c>
-      <c r="J18" s="18" t="s">
+      <c r="J18" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="32"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="12"/>
     </row>
     <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="26">
         <v>43923</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="26">
         <v>43923</v>
       </c>
-      <c r="G19" s="22">
+      <c r="G19" s="26">
         <v>43923</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I19" s="26">
         <v>43923</v>
       </c>
-      <c r="J19" s="18" t="s">
+      <c r="J19" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="32"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="12"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="26">
         <v>43953</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20" s="26">
         <v>43953</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="26">
         <v>44014</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I20" s="26">
         <v>44014</v>
       </c>
-      <c r="J20" s="18" t="s">
+      <c r="J20" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="32"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="12"/>
     </row>
     <row r="21" spans="1:18" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="26">
         <v>44014</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="22">
+      <c r="F21" s="25"/>
+      <c r="G21" s="26">
         <v>44014</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I21" s="26">
         <v>44014</v>
       </c>
-      <c r="J21" s="18" t="s">
+      <c r="J21" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="32"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="12"/>
     </row>
     <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="26">
         <v>44014</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22" s="26">
         <v>44014</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G22" s="26">
         <v>44014</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="I22" s="22">
+      <c r="I22" s="26">
         <v>44014</v>
       </c>
-      <c r="J22" s="18" t="s">
+      <c r="J22" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="32"/>
-    </row>
-    <row r="23" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="23" t="s">
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="12"/>
+    </row>
+    <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="35">
+      <c r="E23" s="26">
         <v>44014</v>
       </c>
-      <c r="F23" s="24"/>
-      <c r="G23" s="35">
+      <c r="F23" s="26">
         <v>44014</v>
       </c>
-      <c r="H23" s="24" t="s">
+      <c r="G23" s="26">
+        <v>44014</v>
+      </c>
+      <c r="H23" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="I23" s="35">
+      <c r="I23" s="26">
         <v>44014</v>
       </c>
-      <c r="J23" s="25" t="s">
+      <c r="J23" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="33"/>
-    </row>
-    <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="12"/>
+    </row>
+    <row r="24" spans="1:18" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="52">
+        <v>44045</v>
+      </c>
+      <c r="F24" s="52">
+        <v>44045</v>
+      </c>
+      <c r="G24" s="52">
+        <v>44045</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="I24" s="52"/>
+      <c r="J24" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="12"/>
+    </row>
+    <row r="25" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="52">
+        <v>44045</v>
+      </c>
+      <c r="F25" s="52">
+        <v>44045</v>
+      </c>
+      <c r="G25" s="52">
+        <v>44045</v>
+      </c>
+      <c r="H25" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="I25" s="29"/>
+      <c r="J25" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="12"/>
+    </row>
+    <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="51"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="12"/>
+    </row>
+    <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="51"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="12"/>
+    </row>
+    <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="51"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="12"/>
+    </row>
+    <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="51"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="12"/>
+    </row>
+    <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="51"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="12"/>
+    </row>
+    <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="51"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="12"/>
+    </row>
+    <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="51"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="12"/>
+    </row>
+    <row r="33" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="51"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="12"/>
+    </row>
+    <row r="34" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="51"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="12"/>
+    </row>
+    <row r="35" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="51"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="12"/>
+    </row>
+    <row r="36" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="51"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="12"/>
+    </row>
+    <row r="37" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="51"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="12"/>
+    </row>
+    <row r="38" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="51"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="27"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="12"/>
+    </row>
+    <row r="39" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="51"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="12"/>
+    </row>
+    <row r="40" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="51"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="12"/>
+    </row>
+    <row r="41" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="51"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="12"/>
+    </row>
+    <row r="42" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="51"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="27"/>
+      <c r="P42" s="27"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="12"/>
+    </row>
+    <row r="43" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="51"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="27"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="12"/>
+    </row>
+    <row r="44" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="51"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="27"/>
+      <c r="P44" s="27"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="12"/>
+    </row>
+    <row r="45" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="51"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="27"/>
+      <c r="O45" s="27"/>
+      <c r="P45" s="27"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="12"/>
+    </row>
+    <row r="46" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="51"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="27"/>
+      <c r="O46" s="27"/>
+      <c r="P46" s="27"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="12"/>
+    </row>
+    <row r="47" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="51"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="27"/>
+      <c r="P47" s="27"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="12"/>
+    </row>
+    <row r="48" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="51"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="27"/>
+      <c r="O48" s="27"/>
+      <c r="P48" s="27"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="12"/>
+    </row>
+    <row r="49" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="51"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="K49" s="29"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="29"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="27"/>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="12"/>
+    </row>
+    <row r="50" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="51"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="27"/>
+      <c r="O50" s="27"/>
+      <c r="P50" s="27"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="12"/>
+    </row>
+    <row r="51" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="51"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="K51" s="29"/>
+      <c r="L51" s="29"/>
+      <c r="M51" s="29"/>
+      <c r="N51" s="27"/>
+      <c r="O51" s="27"/>
+      <c r="P51" s="27"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="12"/>
+    </row>
+    <row r="52" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="51"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K52" s="29"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="29"/>
+      <c r="N52" s="27"/>
+      <c r="O52" s="27"/>
+      <c r="P52" s="27"/>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="12"/>
+    </row>
+    <row r="53" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="51"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="K53" s="29"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="29"/>
+      <c r="N53" s="27"/>
+      <c r="O53" s="27"/>
+      <c r="P53" s="27"/>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="12"/>
+    </row>
+    <row r="54" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="51"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K54" s="29"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="29"/>
+      <c r="N54" s="27"/>
+      <c r="O54" s="27"/>
+      <c r="P54" s="27"/>
+      <c r="Q54" s="10"/>
+      <c r="R54" s="12"/>
+    </row>
+    <row r="55" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="51"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="K55" s="29"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="29"/>
+      <c r="N55" s="27"/>
+      <c r="O55" s="27"/>
+      <c r="P55" s="27"/>
+      <c r="Q55" s="10"/>
+      <c r="R55" s="12"/>
+    </row>
+    <row r="56" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="51"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K56" s="29"/>
+      <c r="L56" s="29"/>
+      <c r="M56" s="29"/>
+      <c r="N56" s="27"/>
+      <c r="O56" s="27"/>
+      <c r="P56" s="27"/>
+      <c r="Q56" s="10"/>
+      <c r="R56" s="12"/>
+    </row>
+    <row r="57" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="51"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="K57" s="29"/>
+      <c r="L57" s="29"/>
+      <c r="M57" s="29"/>
+      <c r="N57" s="27"/>
+      <c r="O57" s="27"/>
+      <c r="P57" s="27"/>
+      <c r="Q57" s="10"/>
+      <c r="R57" s="12"/>
+    </row>
+    <row r="58" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="51"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K58" s="29"/>
+      <c r="L58" s="29"/>
+      <c r="M58" s="29"/>
+      <c r="N58" s="27"/>
+      <c r="O58" s="27"/>
+      <c r="P58" s="27"/>
+      <c r="Q58" s="10"/>
+      <c r="R58" s="12"/>
+    </row>
+    <row r="59" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="51"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="K59" s="29"/>
+      <c r="L59" s="29"/>
+      <c r="M59" s="29"/>
+      <c r="N59" s="27"/>
+      <c r="O59" s="27"/>
+      <c r="P59" s="27"/>
+      <c r="Q59" s="10"/>
+      <c r="R59" s="12"/>
+    </row>
+    <row r="60" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="51"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K60" s="29"/>
+      <c r="L60" s="29"/>
+      <c r="M60" s="29"/>
+      <c r="N60" s="27"/>
+      <c r="O60" s="27"/>
+      <c r="P60" s="27"/>
+      <c r="Q60" s="10"/>
+      <c r="R60" s="12"/>
+    </row>
+    <row r="61" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="51"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="K61" s="29"/>
+      <c r="L61" s="29"/>
+      <c r="M61" s="29"/>
+      <c r="N61" s="27"/>
+      <c r="O61" s="27"/>
+      <c r="P61" s="27"/>
+      <c r="Q61" s="10"/>
+      <c r="R61" s="12"/>
+    </row>
+    <row r="62" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="54"/>
+      <c r="B62" s="55"/>
+      <c r="C62" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="D62" s="55"/>
+      <c r="E62" s="55"/>
+      <c r="F62" s="55"/>
+      <c r="G62" s="55"/>
+      <c r="H62" s="55"/>
+      <c r="I62" s="55"/>
+      <c r="J62" s="55"/>
+      <c r="K62" s="55"/>
+      <c r="L62" s="55"/>
+      <c r="M62" s="55"/>
+      <c r="N62" s="55"/>
+      <c r="O62" s="55"/>
+      <c r="P62" s="55"/>
+      <c r="Q62" s="55"/>
+      <c r="R62" s="13"/>
+    </row>
+    <row r="63" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2959,7 +4036,7 @@
     <mergeCell ref="I1:S3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J5:J23">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J5:J61">
       <formula1>"Asseigned,In progress,done,Revised"</formula1>
     </dataValidation>
   </dataValidations>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="149">
   <si>
     <t>Team Lead: Youssef Kamal</t>
   </si>
@@ -453,7 +453,19 @@
     <t>HIS_TASK21_V1</t>
   </si>
   <si>
-    <t>Update HIS with all the points mentioned in lecture</t>
+    <t>SRS_TASK022_V1</t>
+  </si>
+  <si>
+    <t>Update SRS according to the slides.</t>
+  </si>
+  <si>
+    <t>Update HIS with all the points mentioned in lecture.</t>
+  </si>
+  <si>
+    <t>14/2/2020</t>
+  </si>
+  <si>
+    <t>6 days</t>
   </si>
 </sst>
 </file>
@@ -878,7 +890,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -908,16 +920,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1001,6 +1003,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1219,8 +1232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="F22" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1241,201 +1254,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="24" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="24" t="s">
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
       <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="34" t="s">
+      <c r="K4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="35" t="s">
+      <c r="L4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="35" t="s">
+      <c r="M4" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="35" t="s">
+      <c r="N4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="35" t="s">
+      <c r="O4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="35" t="s">
+      <c r="P4" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="36" t="s">
+      <c r="Q4" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="37" t="s">
+      <c r="R4" s="31" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="34">
         <v>43851</v>
       </c>
-      <c r="F5" s="41">
+      <c r="F5" s="35">
         <v>43853</v>
       </c>
-      <c r="G5" s="41">
+      <c r="G5" s="35">
         <v>43853</v>
       </c>
-      <c r="H5" s="39" t="s">
+      <c r="H5" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="I5" s="41" t="s">
+      <c r="I5" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="43"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="11"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="40">
         <v>43851</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="H6" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="19" t="s">
         <v>50</v>
       </c>
       <c r="J6" s="6" t="s">
@@ -1451,31 +1464,31 @@
       <c r="R6" s="12"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="40">
         <v>43851</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="19" t="s">
         <v>50</v>
       </c>
       <c r="J7" s="6" t="s">
@@ -1491,31 +1504,31 @@
       <c r="R7" s="12"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8" s="40">
         <v>43851</v>
       </c>
-      <c r="F8" s="48">
+      <c r="F8" s="42">
         <v>43852</v>
       </c>
-      <c r="G8" s="48">
+      <c r="G8" s="42">
         <v>43854</v>
       </c>
-      <c r="H8" s="49" t="s">
+      <c r="H8" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="25" t="s">
+      <c r="I8" s="19" t="s">
         <v>50</v>
       </c>
       <c r="J8" s="7" t="s">
@@ -1531,31 +1544,31 @@
       <c r="R8" s="12"/>
     </row>
     <row r="9" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="I9" s="19" t="s">
         <v>67</v>
       </c>
       <c r="J9" s="6" t="s">
@@ -1571,31 +1584,31 @@
       <c r="R9" s="12"/>
     </row>
     <row r="10" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="I10" s="19" t="s">
         <v>67</v>
       </c>
       <c r="J10" s="6" t="s">
@@ -1611,31 +1624,31 @@
       <c r="R10" s="12"/>
     </row>
     <row r="11" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="19" t="s">
         <v>67</v>
       </c>
       <c r="J11" s="6" t="s">
@@ -1651,31 +1664,31 @@
       <c r="R11" s="12"/>
     </row>
     <row r="12" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="20">
         <v>43892</v>
       </c>
-      <c r="F12" s="50">
+      <c r="F12" s="44">
         <v>43863</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="20">
         <v>43923</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="I12" s="26">
+      <c r="I12" s="20">
         <v>43892</v>
       </c>
       <c r="J12" s="6" t="s">
@@ -1691,31 +1704,31 @@
       <c r="R12" s="12"/>
     </row>
     <row r="13" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="20">
         <v>43892</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="20">
         <v>43892</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="20">
         <v>43923</v>
       </c>
-      <c r="H13" s="25" t="s">
+      <c r="H13" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="26">
+      <c r="I13" s="20">
         <v>43923</v>
       </c>
       <c r="J13" s="6" t="s">
@@ -1733,31 +1746,31 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="20">
         <v>43892</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="20">
         <v>43863</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="20">
         <v>43923</v>
       </c>
-      <c r="H14" s="25" t="s">
+      <c r="H14" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="26">
+      <c r="I14" s="20">
         <v>43892</v>
       </c>
       <c r="J14" s="6" t="s">
@@ -1773,31 +1786,31 @@
       <c r="R14" s="12"/>
     </row>
     <row r="15" spans="1:20" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="20">
         <v>43892</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="20">
         <v>43892</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="20">
         <v>43923</v>
       </c>
-      <c r="H15" s="25" t="s">
+      <c r="H15" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="I15" s="26">
+      <c r="I15" s="20">
         <v>43923</v>
       </c>
       <c r="J15" s="6" t="s">
@@ -1813,31 +1826,31 @@
       <c r="R15" s="15"/>
     </row>
     <row r="16" spans="1:20" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="20">
         <v>43923</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="20">
         <v>43953</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="20">
         <v>43984</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="H16" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="I16" s="26">
+      <c r="I16" s="20">
         <v>43984</v>
       </c>
       <c r="J16" s="6" t="s">
@@ -1853,31 +1866,31 @@
       <c r="R16" s="12"/>
     </row>
     <row r="17" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="20">
         <v>43923</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="20">
         <v>43923</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="20">
         <v>43953</v>
       </c>
-      <c r="H17" s="25" t="s">
+      <c r="H17" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="26">
+      <c r="I17" s="20">
         <v>43953</v>
       </c>
       <c r="J17" s="6" t="s">
@@ -1893,29 +1906,29 @@
       <c r="R17" s="12"/>
     </row>
     <row r="18" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="20">
         <v>44014</v>
       </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="26">
+      <c r="F18" s="19"/>
+      <c r="G18" s="20">
         <v>44045</v>
       </c>
-      <c r="H18" s="25" t="s">
+      <c r="H18" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="I18" s="26">
+      <c r="I18" s="20">
         <v>44014</v>
       </c>
       <c r="J18" s="6" t="s">
@@ -1931,31 +1944,31 @@
       <c r="R18" s="12"/>
     </row>
     <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="20">
         <v>43923</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="20">
         <v>43923</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="20">
         <v>43923</v>
       </c>
-      <c r="H19" s="25" t="s">
+      <c r="H19" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="I19" s="26">
+      <c r="I19" s="20">
         <v>43923</v>
       </c>
       <c r="J19" s="6" t="s">
@@ -1971,31 +1984,31 @@
       <c r="R19" s="12"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="20">
         <v>43953</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F20" s="20">
         <v>43953</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="20">
         <v>44014</v>
       </c>
-      <c r="H20" s="25" t="s">
+      <c r="H20" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="I20" s="26">
+      <c r="I20" s="20">
         <v>44014</v>
       </c>
       <c r="J20" s="6" t="s">
@@ -2011,29 +2024,29 @@
       <c r="R20" s="12"/>
     </row>
     <row r="21" spans="1:18" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="20">
         <v>44014</v>
       </c>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26">
+      <c r="F21" s="19"/>
+      <c r="G21" s="20">
         <v>44014</v>
       </c>
-      <c r="H21" s="25" t="s">
+      <c r="H21" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="I21" s="26">
+      <c r="I21" s="20">
         <v>44014</v>
       </c>
       <c r="J21" s="6" t="s">
@@ -2049,31 +2062,31 @@
       <c r="R21" s="12"/>
     </row>
     <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="20">
         <v>44014</v>
       </c>
-      <c r="F22" s="26">
+      <c r="F22" s="20">
         <v>44014</v>
       </c>
-      <c r="G22" s="26">
+      <c r="G22" s="20">
         <v>44014</v>
       </c>
-      <c r="H22" s="25" t="s">
+      <c r="H22" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="I22" s="26">
+      <c r="I22" s="20">
         <v>44014</v>
       </c>
       <c r="J22" s="6" t="s">
@@ -2089,34 +2102,34 @@
       <c r="R22" s="12"/>
     </row>
     <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="20">
         <v>44014</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="20">
         <v>44014</v>
       </c>
-      <c r="G23" s="26">
+      <c r="G23" s="20">
         <v>44014</v>
       </c>
-      <c r="H23" s="25" t="s">
+      <c r="H23" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="I23" s="26">
+      <c r="I23" s="20">
         <v>44014</v>
       </c>
-      <c r="J23" s="28" t="s">
+      <c r="J23" s="22" t="s">
         <v>55</v>
       </c>
       <c r="K23" s="8"/>
@@ -2129,965 +2142,979 @@
       <c r="R23" s="12"/>
     </row>
     <row r="24" spans="1:18" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="52">
+      <c r="E24" s="46">
         <v>44045</v>
       </c>
-      <c r="F24" s="52">
+      <c r="F24" s="46">
         <v>44045</v>
       </c>
-      <c r="G24" s="52">
+      <c r="G24" s="46">
         <v>44045</v>
       </c>
-      <c r="H24" s="29" t="s">
+      <c r="H24" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="I24" s="52"/>
+      <c r="I24" s="46"/>
       <c r="J24" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
       <c r="Q24" s="10"/>
       <c r="R24" s="12"/>
     </row>
     <row r="25" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="B25" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="C25" s="29" t="s">
+      <c r="B25" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E25" s="52">
+      <c r="E25" s="46">
         <v>44045</v>
       </c>
-      <c r="F25" s="52">
+      <c r="F25" s="46">
         <v>44045</v>
       </c>
-      <c r="G25" s="52">
+      <c r="G25" s="46">
         <v>44045</v>
       </c>
-      <c r="H25" s="29" t="s">
+      <c r="H25" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="I25" s="29"/>
-      <c r="J25" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
+      <c r="I25" s="46">
+        <v>44045</v>
+      </c>
+      <c r="J25" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
       <c r="Q25" s="10"/>
       <c r="R25" s="12"/>
     </row>
     <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="51"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29" t="s">
+      <c r="A26" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
+      <c r="D26" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="46">
+        <v>44076</v>
+      </c>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H26" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="I26" s="23"/>
       <c r="J26" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
       <c r="Q26" s="10"/>
       <c r="R26" s="12"/>
     </row>
     <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29" t="s">
+      <c r="A27" s="45"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="28" t="s">
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
       <c r="Q27" s="10"/>
       <c r="R27" s="12"/>
     </row>
     <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="51"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29" t="s">
+      <c r="A28" s="45"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
       <c r="J28" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
       <c r="Q28" s="10"/>
       <c r="R28" s="12"/>
     </row>
     <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="51"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29" t="s">
+      <c r="A29" s="45"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="28" t="s">
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
       <c r="Q29" s="10"/>
       <c r="R29" s="12"/>
     </row>
     <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="51"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29" t="s">
+      <c r="A30" s="45"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
       <c r="J30" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
       <c r="Q30" s="10"/>
       <c r="R30" s="12"/>
     </row>
     <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="51"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29" t="s">
+      <c r="A31" s="45"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="28" t="s">
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
       <c r="Q31" s="10"/>
       <c r="R31" s="12"/>
     </row>
     <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="51"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29" t="s">
+      <c r="A32" s="45"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
       <c r="J32" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
       <c r="Q32" s="10"/>
       <c r="R32" s="12"/>
     </row>
     <row r="33" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="51"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29" t="s">
+      <c r="A33" s="45"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="28" t="s">
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
       <c r="Q33" s="10"/>
       <c r="R33" s="12"/>
     </row>
     <row r="34" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="51"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29" t="s">
+      <c r="A34" s="45"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
       <c r="J34" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="27"/>
-      <c r="P34" s="27"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
       <c r="Q34" s="10"/>
       <c r="R34" s="12"/>
     </row>
     <row r="35" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="51"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29" t="s">
+      <c r="A35" s="45"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="28" t="s">
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="27"/>
-      <c r="P35" s="27"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
       <c r="Q35" s="10"/>
       <c r="R35" s="12"/>
     </row>
     <row r="36" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="51"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29" t="s">
+      <c r="A36" s="45"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
       <c r="J36" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="27"/>
-      <c r="O36" s="27"/>
-      <c r="P36" s="27"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
       <c r="Q36" s="10"/>
       <c r="R36" s="12"/>
     </row>
     <row r="37" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="51"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29" t="s">
+      <c r="A37" s="45"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="28" t="s">
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="27"/>
-      <c r="P37" s="27"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
       <c r="Q37" s="10"/>
       <c r="R37" s="12"/>
     </row>
     <row r="38" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="51"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29" t="s">
+      <c r="A38" s="45"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
       <c r="J38" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="27"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
       <c r="Q38" s="10"/>
       <c r="R38" s="12"/>
     </row>
     <row r="39" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="51"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29" t="s">
+      <c r="A39" s="45"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="28" t="s">
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="27"/>
-      <c r="P39" s="27"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
       <c r="Q39" s="10"/>
       <c r="R39" s="12"/>
     </row>
     <row r="40" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="51"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29" t="s">
+      <c r="A40" s="45"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
       <c r="J40" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K40" s="29"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="27"/>
-      <c r="P40" s="27"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
       <c r="Q40" s="10"/>
       <c r="R40" s="12"/>
     </row>
     <row r="41" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="51"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29" t="s">
+      <c r="A41" s="45"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="28" t="s">
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="27"/>
-      <c r="P41" s="27"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
       <c r="Q41" s="10"/>
       <c r="R41" s="12"/>
     </row>
     <row r="42" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="51"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29" t="s">
+      <c r="A42" s="45"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
       <c r="J42" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="27"/>
-      <c r="P42" s="27"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="21"/>
       <c r="Q42" s="10"/>
       <c r="R42" s="12"/>
     </row>
     <row r="43" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="51"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29" t="s">
+      <c r="A43" s="45"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="28" t="s">
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="29"/>
-      <c r="N43" s="27"/>
-      <c r="O43" s="27"/>
-      <c r="P43" s="27"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
       <c r="Q43" s="10"/>
       <c r="R43" s="12"/>
     </row>
     <row r="44" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="51"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29" t="s">
+      <c r="A44" s="45"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
       <c r="J44" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K44" s="29"/>
-      <c r="L44" s="29"/>
-      <c r="M44" s="29"/>
-      <c r="N44" s="27"/>
-      <c r="O44" s="27"/>
-      <c r="P44" s="27"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="23"/>
+      <c r="M44" s="23"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
       <c r="Q44" s="10"/>
       <c r="R44" s="12"/>
     </row>
     <row r="45" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="51"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29" t="s">
+      <c r="A45" s="45"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="28" t="s">
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
-      <c r="M45" s="29"/>
-      <c r="N45" s="27"/>
-      <c r="O45" s="27"/>
-      <c r="P45" s="27"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="23"/>
+      <c r="M45" s="23"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="21"/>
+      <c r="P45" s="21"/>
       <c r="Q45" s="10"/>
       <c r="R45" s="12"/>
     </row>
     <row r="46" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="51"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29" t="s">
+      <c r="A46" s="45"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
       <c r="J46" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K46" s="29"/>
-      <c r="L46" s="29"/>
-      <c r="M46" s="29"/>
-      <c r="N46" s="27"/>
-      <c r="O46" s="27"/>
-      <c r="P46" s="27"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="23"/>
+      <c r="M46" s="23"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="21"/>
       <c r="Q46" s="10"/>
       <c r="R46" s="12"/>
     </row>
     <row r="47" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="51"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29" t="s">
+      <c r="A47" s="45"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="28" t="s">
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="K47" s="29"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="29"/>
-      <c r="N47" s="27"/>
-      <c r="O47" s="27"/>
-      <c r="P47" s="27"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="23"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="21"/>
       <c r="Q47" s="10"/>
       <c r="R47" s="12"/>
     </row>
     <row r="48" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="51"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29" t="s">
+      <c r="A48" s="45"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
       <c r="J48" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="29"/>
-      <c r="N48" s="27"/>
-      <c r="O48" s="27"/>
-      <c r="P48" s="27"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="21"/>
       <c r="Q48" s="10"/>
       <c r="R48" s="12"/>
     </row>
     <row r="49" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="51"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29" t="s">
+      <c r="A49" s="45"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="28" t="s">
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="K49" s="29"/>
-      <c r="L49" s="29"/>
-      <c r="M49" s="29"/>
-      <c r="N49" s="27"/>
-      <c r="O49" s="27"/>
-      <c r="P49" s="27"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="23"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="21"/>
       <c r="Q49" s="10"/>
       <c r="R49" s="12"/>
     </row>
     <row r="50" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="51"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="29" t="s">
+      <c r="A50" s="45"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="29"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
       <c r="J50" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K50" s="29"/>
-      <c r="L50" s="29"/>
-      <c r="M50" s="29"/>
-      <c r="N50" s="27"/>
-      <c r="O50" s="27"/>
-      <c r="P50" s="27"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="23"/>
+      <c r="M50" s="23"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="21"/>
       <c r="Q50" s="10"/>
       <c r="R50" s="12"/>
     </row>
     <row r="51" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="51"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="29" t="s">
+      <c r="A51" s="45"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="28" t="s">
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="K51" s="29"/>
-      <c r="L51" s="29"/>
-      <c r="M51" s="29"/>
-      <c r="N51" s="27"/>
-      <c r="O51" s="27"/>
-      <c r="P51" s="27"/>
+      <c r="K51" s="23"/>
+      <c r="L51" s="23"/>
+      <c r="M51" s="23"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="21"/>
+      <c r="P51" s="21"/>
       <c r="Q51" s="10"/>
       <c r="R51" s="12"/>
     </row>
     <row r="52" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="51"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="29" t="s">
+      <c r="A52" s="45"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="29"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="23"/>
       <c r="J52" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K52" s="29"/>
-      <c r="L52" s="29"/>
-      <c r="M52" s="29"/>
-      <c r="N52" s="27"/>
-      <c r="O52" s="27"/>
-      <c r="P52" s="27"/>
+      <c r="K52" s="23"/>
+      <c r="L52" s="23"/>
+      <c r="M52" s="23"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="21"/>
       <c r="Q52" s="10"/>
       <c r="R52" s="12"/>
     </row>
     <row r="53" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="51"/>
-      <c r="B53" s="29"/>
-      <c r="C53" s="29" t="s">
+      <c r="A53" s="45"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="28" t="s">
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="K53" s="29"/>
-      <c r="L53" s="29"/>
-      <c r="M53" s="29"/>
-      <c r="N53" s="27"/>
-      <c r="O53" s="27"/>
-      <c r="P53" s="27"/>
+      <c r="K53" s="23"/>
+      <c r="L53" s="23"/>
+      <c r="M53" s="23"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="21"/>
       <c r="Q53" s="10"/>
       <c r="R53" s="12"/>
     </row>
     <row r="54" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="51"/>
-      <c r="B54" s="29"/>
-      <c r="C54" s="29" t="s">
+      <c r="A54" s="45"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="29"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
       <c r="J54" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K54" s="29"/>
-      <c r="L54" s="29"/>
-      <c r="M54" s="29"/>
-      <c r="N54" s="27"/>
-      <c r="O54" s="27"/>
-      <c r="P54" s="27"/>
+      <c r="K54" s="23"/>
+      <c r="L54" s="23"/>
+      <c r="M54" s="23"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="21"/>
       <c r="Q54" s="10"/>
       <c r="R54" s="12"/>
     </row>
     <row r="55" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="51"/>
-      <c r="B55" s="29"/>
-      <c r="C55" s="29" t="s">
+      <c r="A55" s="45"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="29"/>
-      <c r="J55" s="28" t="s">
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="K55" s="29"/>
-      <c r="L55" s="29"/>
-      <c r="M55" s="29"/>
-      <c r="N55" s="27"/>
-      <c r="O55" s="27"/>
-      <c r="P55" s="27"/>
+      <c r="K55" s="23"/>
+      <c r="L55" s="23"/>
+      <c r="M55" s="23"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="21"/>
       <c r="Q55" s="10"/>
       <c r="R55" s="12"/>
     </row>
     <row r="56" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="51"/>
-      <c r="B56" s="29"/>
-      <c r="C56" s="29" t="s">
+      <c r="A56" s="45"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="29"/>
-      <c r="I56" s="29"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="23"/>
       <c r="J56" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K56" s="29"/>
-      <c r="L56" s="29"/>
-      <c r="M56" s="29"/>
-      <c r="N56" s="27"/>
-      <c r="O56" s="27"/>
-      <c r="P56" s="27"/>
+      <c r="K56" s="23"/>
+      <c r="L56" s="23"/>
+      <c r="M56" s="23"/>
+      <c r="N56" s="21"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="21"/>
       <c r="Q56" s="10"/>
       <c r="R56" s="12"/>
     </row>
     <row r="57" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="51"/>
-      <c r="B57" s="29"/>
-      <c r="C57" s="29" t="s">
+      <c r="A57" s="45"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="29"/>
-      <c r="J57" s="28" t="s">
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="K57" s="29"/>
-      <c r="L57" s="29"/>
-      <c r="M57" s="29"/>
-      <c r="N57" s="27"/>
-      <c r="O57" s="27"/>
-      <c r="P57" s="27"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="23"/>
+      <c r="M57" s="23"/>
+      <c r="N57" s="21"/>
+      <c r="O57" s="21"/>
+      <c r="P57" s="21"/>
       <c r="Q57" s="10"/>
       <c r="R57" s="12"/>
     </row>
     <row r="58" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="51"/>
-      <c r="B58" s="29"/>
-      <c r="C58" s="29" t="s">
+      <c r="A58" s="45"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="29"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="23"/>
       <c r="J58" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K58" s="29"/>
-      <c r="L58" s="29"/>
-      <c r="M58" s="29"/>
-      <c r="N58" s="27"/>
-      <c r="O58" s="27"/>
-      <c r="P58" s="27"/>
+      <c r="K58" s="23"/>
+      <c r="L58" s="23"/>
+      <c r="M58" s="23"/>
+      <c r="N58" s="21"/>
+      <c r="O58" s="21"/>
+      <c r="P58" s="21"/>
       <c r="Q58" s="10"/>
       <c r="R58" s="12"/>
     </row>
     <row r="59" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="51"/>
-      <c r="B59" s="29"/>
-      <c r="C59" s="29" t="s">
+      <c r="A59" s="45"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="29"/>
-      <c r="J59" s="28" t="s">
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="K59" s="29"/>
-      <c r="L59" s="29"/>
-      <c r="M59" s="29"/>
-      <c r="N59" s="27"/>
-      <c r="O59" s="27"/>
-      <c r="P59" s="27"/>
+      <c r="K59" s="23"/>
+      <c r="L59" s="23"/>
+      <c r="M59" s="23"/>
+      <c r="N59" s="21"/>
+      <c r="O59" s="21"/>
+      <c r="P59" s="21"/>
       <c r="Q59" s="10"/>
       <c r="R59" s="12"/>
     </row>
     <row r="60" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="51"/>
-      <c r="B60" s="29"/>
-      <c r="C60" s="29" t="s">
+      <c r="A60" s="45"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="29"/>
-      <c r="I60" s="29"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="23"/>
       <c r="J60" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K60" s="29"/>
-      <c r="L60" s="29"/>
-      <c r="M60" s="29"/>
-      <c r="N60" s="27"/>
-      <c r="O60" s="27"/>
-      <c r="P60" s="27"/>
+      <c r="K60" s="23"/>
+      <c r="L60" s="23"/>
+      <c r="M60" s="23"/>
+      <c r="N60" s="21"/>
+      <c r="O60" s="21"/>
+      <c r="P60" s="21"/>
       <c r="Q60" s="10"/>
       <c r="R60" s="12"/>
     </row>
     <row r="61" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="51"/>
-      <c r="B61" s="29"/>
-      <c r="C61" s="29" t="s">
+      <c r="A61" s="45"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="29"/>
-      <c r="I61" s="29"/>
-      <c r="J61" s="28" t="s">
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="K61" s="29"/>
-      <c r="L61" s="29"/>
-      <c r="M61" s="29"/>
-      <c r="N61" s="27"/>
-      <c r="O61" s="27"/>
-      <c r="P61" s="27"/>
+      <c r="K61" s="23"/>
+      <c r="L61" s="23"/>
+      <c r="M61" s="23"/>
+      <c r="N61" s="21"/>
+      <c r="O61" s="21"/>
+      <c r="P61" s="21"/>
       <c r="Q61" s="10"/>
       <c r="R61" s="12"/>
     </row>
     <row r="62" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="54"/>
-      <c r="B62" s="55"/>
-      <c r="C62" s="56" t="s">
+      <c r="A62" s="48"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="D62" s="55"/>
-      <c r="E62" s="55"/>
-      <c r="F62" s="55"/>
-      <c r="G62" s="55"/>
-      <c r="H62" s="55"/>
-      <c r="I62" s="55"/>
-      <c r="J62" s="55"/>
-      <c r="K62" s="55"/>
-      <c r="L62" s="55"/>
-      <c r="M62" s="55"/>
-      <c r="N62" s="55"/>
-      <c r="O62" s="55"/>
-      <c r="P62" s="55"/>
-      <c r="Q62" s="55"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="49"/>
+      <c r="G62" s="49"/>
+      <c r="H62" s="49"/>
+      <c r="I62" s="49"/>
+      <c r="J62" s="49"/>
+      <c r="K62" s="49"/>
+      <c r="L62" s="49"/>
+      <c r="M62" s="49"/>
+      <c r="N62" s="49"/>
+      <c r="O62" s="49"/>
+      <c r="P62" s="49"/>
+      <c r="Q62" s="49"/>
       <c r="R62" s="13"/>
     </row>
     <row r="63" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="150">
   <si>
     <t>Team Lead: Youssef Kamal</t>
   </si>
@@ -466,6 +466,9 @@
   </si>
   <si>
     <t>6 days</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
@@ -1232,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F22" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2166,14 +2169,16 @@
       <c r="H24" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="I24" s="46"/>
+      <c r="I24" s="46">
+        <v>44045</v>
+      </c>
       <c r="J24" s="6" t="s">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="K24" s="23"/>
       <c r="L24" s="23"/>
       <c r="M24" s="23"/>
-      <c r="N24" s="47"/>
+      <c r="N24" s="51"/>
       <c r="O24" s="21"/>
       <c r="P24" s="21"/>
       <c r="Q24" s="10"/>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="149">
   <si>
     <t>Team Lead: Youssef Kamal</t>
   </si>
@@ -466,9 +466,6 @@
   </si>
   <si>
     <t>6 days</t>
-  </si>
-  <si>
-    <t>done</t>
   </si>
 </sst>
 </file>
@@ -1235,8 +1232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="F22" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2169,16 +2166,14 @@
       <c r="H24" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="I24" s="46">
-        <v>44045</v>
-      </c>
+      <c r="I24" s="46"/>
       <c r="J24" s="6" t="s">
-        <v>149</v>
+        <v>71</v>
       </c>
       <c r="K24" s="23"/>
       <c r="L24" s="23"/>
       <c r="M24" s="23"/>
-      <c r="N24" s="51"/>
+      <c r="N24" s="47"/>
       <c r="O24" s="21"/>
       <c r="P24" s="21"/>
       <c r="Q24" s="10"/>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="152">
   <si>
     <t>Team Lead: Youssef Kamal</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Assignation Date</t>
   </si>
   <si>
-    <t>Actual Start Date</t>
-  </si>
-  <si>
     <t>Estimate Time</t>
   </si>
   <si>
@@ -165,9 +162,6 @@
     <t>TASK019</t>
   </si>
   <si>
-    <t>22/1/2020</t>
-  </si>
-  <si>
     <t>Make Template to the HSI document</t>
   </si>
   <si>
@@ -219,9 +213,6 @@
     <t>Do the changes required in the review sheet to CYRS document</t>
   </si>
   <si>
-    <t>28/1/2020</t>
-  </si>
-  <si>
     <t>29/1/2020</t>
   </si>
   <si>
@@ -466,6 +457,24 @@
   </si>
   <si>
     <t>6 days</t>
+  </si>
+  <si>
+    <t>SRS_REV_TASK023_V1</t>
+  </si>
+  <si>
+    <t>Update SRS acording to the review sheet.</t>
+  </si>
+  <si>
+    <t>15/2/2020</t>
+  </si>
+  <si>
+    <t>19/2/2020</t>
+  </si>
+  <si>
+    <t>4 days</t>
+  </si>
+  <si>
+    <t>Note the sara was occupies with the make hakathon</t>
   </si>
 </sst>
 </file>
@@ -542,7 +551,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -594,6 +603,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -989,16 +1004,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1015,6 +1026,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1230,10 +1243,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T1000"/>
+  <dimension ref="A1:S1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F22" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1243,96 +1256,92 @@
     <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="15.75" customWidth="1"/>
-    <col min="6" max="6" width="15.25" customWidth="1"/>
-    <col min="7" max="7" width="21.625" customWidth="1"/>
-    <col min="8" max="8" width="19.5" customWidth="1"/>
-    <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="10.75" customWidth="1"/>
-    <col min="11" max="17" width="7.625" customWidth="1"/>
-    <col min="18" max="18" width="9.75" customWidth="1"/>
-    <col min="19" max="26" width="7.625" customWidth="1"/>
+    <col min="6" max="6" width="21.625" customWidth="1"/>
+    <col min="7" max="7" width="19.5" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="10.75" customWidth="1"/>
+    <col min="10" max="16" width="7.625" customWidth="1"/>
+    <col min="17" max="17" width="9.75" customWidth="1"/>
+    <col min="18" max="25" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="57" t="s">
+    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="57" t="s">
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="H1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="1"/>
-    </row>
-    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="1"/>
-    </row>
-    <row r="3" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="55"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="1"/>
-    </row>
-    <row r="4" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="52"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="53"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>4</v>
@@ -1344,21 +1353,21 @@
         <v>6</v>
       </c>
       <c r="F4" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="25" t="s">
         <v>7</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>86</v>
       </c>
       <c r="H4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="K4" s="29" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="29" t="s">
@@ -1373,28 +1382,25 @@
       <c r="O4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="29" t="s">
+      <c r="P4" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="30" t="s">
+      <c r="Q4" s="31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="31" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="B5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="C5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="D5" s="33" t="s">
         <v>20</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>21</v>
       </c>
       <c r="E5" s="34">
         <v>43851</v>
@@ -1402,559 +1408,519 @@
       <c r="F5" s="35">
         <v>43853</v>
       </c>
-      <c r="G5" s="35">
-        <v>43853</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="J5" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="K5" s="37"/>
+      <c r="G5" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="37"/>
+      <c r="K5" s="38"/>
       <c r="L5" s="38"/>
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
       <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="11"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P5" s="9"/>
+      <c r="Q5" s="11"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="C6" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="D6" s="19" t="s">
         <v>24</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>25</v>
       </c>
       <c r="E6" s="40">
         <v>43851</v>
       </c>
       <c r="F6" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="I6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="3"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="12"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P6" s="10"/>
+      <c r="Q6" s="12"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C7" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>26</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>27</v>
       </c>
       <c r="E7" s="40">
         <v>43851</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="41" t="s">
         <v>48</v>
       </c>
       <c r="G7" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K7" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="12"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P7" s="10"/>
+      <c r="Q7" s="12"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="C8" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="D8" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>31</v>
       </c>
       <c r="E8" s="40">
         <v>43851</v>
       </c>
       <c r="F8" s="42">
-        <v>43852</v>
-      </c>
-      <c r="G8" s="42">
         <v>43854</v>
       </c>
-      <c r="H8" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K8" s="2"/>
+      <c r="G8" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="12"/>
-    </row>
-    <row r="9" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P8" s="10"/>
+      <c r="Q8" s="12"/>
+    </row>
+    <row r="9" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="E9" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>60</v>
-      </c>
       <c r="F9" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="17"/>
+        <v>64</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="8"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="12"/>
-    </row>
-    <row r="10" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="P9" s="10"/>
+      <c r="Q9" s="12"/>
+    </row>
+    <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="12"/>
-    </row>
-    <row r="11" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="P10" s="10"/>
+      <c r="Q10" s="12"/>
+    </row>
+    <row r="11" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>65</v>
-      </c>
       <c r="C11" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="19" t="s">
-        <v>66</v>
-      </c>
       <c r="G11" s="19" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K11" s="8"/>
-      <c r="L11" s="5"/>
+        <v>64</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="8"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="12"/>
-    </row>
-    <row r="12" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="P11" s="10"/>
+      <c r="Q11" s="12"/>
+    </row>
+    <row r="12" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="39" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="20">
         <v>43892</v>
       </c>
-      <c r="F12" s="44">
-        <v>43863</v>
-      </c>
-      <c r="G12" s="20">
+      <c r="F12" s="20">
         <v>43923</v>
       </c>
-      <c r="H12" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="I12" s="20">
+      <c r="G12" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="20">
         <v>43892</v>
       </c>
-      <c r="J12" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="I12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" s="8"/>
       <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="12"/>
-    </row>
-    <row r="13" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P12" s="10"/>
+      <c r="Q12" s="12"/>
+    </row>
+    <row r="13" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E13" s="20">
         <v>43892</v>
       </c>
       <c r="F13" s="20">
-        <v>43892</v>
-      </c>
-      <c r="G13" s="20">
         <v>43923</v>
       </c>
-      <c r="H13" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" s="20">
+      <c r="G13" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="20">
         <v>43923</v>
       </c>
-      <c r="J13" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="I13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="8"/>
       <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+      <c r="P13" s="10"/>
+      <c r="Q13" s="16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="39" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="20">
         <v>43892</v>
       </c>
       <c r="F14" s="20">
-        <v>43863</v>
-      </c>
-      <c r="G14" s="20">
         <v>43923</v>
       </c>
-      <c r="H14" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" s="20">
+      <c r="G14" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="20">
         <v>43892</v>
       </c>
-      <c r="J14" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="I14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="8"/>
       <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="12"/>
-    </row>
-    <row r="15" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="P14" s="10"/>
+      <c r="Q14" s="12"/>
+    </row>
+    <row r="15" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="39" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="20">
         <v>43892</v>
       </c>
       <c r="F15" s="20">
-        <v>43892</v>
-      </c>
-      <c r="G15" s="20">
         <v>43923</v>
       </c>
-      <c r="H15" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" s="20">
+      <c r="G15" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="20">
         <v>43923</v>
       </c>
-      <c r="J15" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="I15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="8"/>
       <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="15"/>
-    </row>
-    <row r="16" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+      <c r="P15" s="10"/>
+      <c r="Q15" s="15"/>
+    </row>
+    <row r="16" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="39" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16" s="20">
         <v>43923</v>
       </c>
       <c r="F16" s="20">
-        <v>43953</v>
-      </c>
-      <c r="G16" s="20">
         <v>43984</v>
       </c>
-      <c r="H16" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="I16" s="20">
+      <c r="G16" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="20">
         <v>43984</v>
       </c>
-      <c r="J16" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="I16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16" s="8"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="12"/>
-    </row>
-    <row r="17" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="P16" s="10"/>
+      <c r="Q16" s="12"/>
+    </row>
+    <row r="17" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="19" t="s">
-        <v>81</v>
-      </c>
       <c r="C17" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E17" s="20">
         <v>43923</v>
       </c>
       <c r="F17" s="20">
-        <v>43923</v>
-      </c>
-      <c r="G17" s="20">
         <v>43953</v>
       </c>
-      <c r="H17" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="I17" s="20">
+      <c r="G17" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="20">
         <v>43953</v>
       </c>
-      <c r="J17" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="I17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17" s="8"/>
       <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="12"/>
-    </row>
-    <row r="18" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="P17" s="10"/>
+      <c r="Q17" s="12"/>
+    </row>
+    <row r="18" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="39" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E18" s="20">
         <v>44014</v>
       </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="20">
+      <c r="F18" s="20">
         <v>44045</v>
       </c>
-      <c r="H18" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="I18" s="20">
+      <c r="G18" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="20">
         <v>44014</v>
       </c>
-      <c r="J18" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="I18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18" s="8"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="12"/>
-    </row>
-    <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="P18" s="10"/>
+      <c r="Q18" s="12"/>
+    </row>
+    <row r="19" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="39" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" s="20">
         <v>43923</v>
@@ -1962,117 +1928,110 @@
       <c r="F19" s="20">
         <v>43923</v>
       </c>
-      <c r="G19" s="20">
+      <c r="G19" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" s="20">
         <v>43923</v>
       </c>
-      <c r="H19" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="I19" s="20">
-        <v>43923</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="I19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J19" s="8"/>
       <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="12"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P19" s="10"/>
+      <c r="Q19" s="12"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="39" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E20" s="20">
         <v>43953</v>
       </c>
       <c r="F20" s="20">
-        <v>43953</v>
-      </c>
-      <c r="G20" s="20">
         <v>44014</v>
       </c>
-      <c r="H20" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="I20" s="20">
+      <c r="G20" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="20">
         <v>44014</v>
       </c>
-      <c r="J20" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="I20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" s="8"/>
       <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="12"/>
-    </row>
-    <row r="21" spans="1:18" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P20" s="10"/>
+      <c r="Q20" s="12"/>
+    </row>
+    <row r="21" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="39" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" s="20">
         <v>44014</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="20">
+      <c r="F21" s="20">
         <v>44014</v>
       </c>
-      <c r="H21" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="I21" s="20">
+      <c r="G21" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="H21" s="20">
         <v>44014</v>
       </c>
-      <c r="J21" s="6" t="s">
-        <v>71</v>
-      </c>
+      <c r="I21" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J21" s="8"/>
       <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="12"/>
-    </row>
-    <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P21" s="10"/>
+      <c r="Q21" s="12"/>
+    </row>
+    <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="39" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22" s="20">
         <v>44014</v>
@@ -2080,39 +2039,36 @@
       <c r="F22" s="20">
         <v>44014</v>
       </c>
-      <c r="G22" s="20">
+      <c r="G22" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="H22" s="20">
         <v>44014</v>
       </c>
-      <c r="H22" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="I22" s="20">
-        <v>44014</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="I22" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J22" s="8"/>
       <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="12"/>
-    </row>
-    <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P22" s="10"/>
+      <c r="Q22" s="12"/>
+    </row>
+    <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23" s="20">
         <v>44014</v>
@@ -2120,1005 +2076,977 @@
       <c r="F23" s="20">
         <v>44014</v>
       </c>
-      <c r="G23" s="20">
+      <c r="G23" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="H23" s="20">
         <v>44014</v>
       </c>
-      <c r="H23" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="I23" s="20">
-        <v>44014</v>
-      </c>
-      <c r="J23" s="22" t="s">
-        <v>55</v>
-      </c>
+      <c r="I23" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="J23" s="8"/>
       <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="12"/>
-    </row>
-    <row r="24" spans="1:18" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="45" t="s">
-        <v>142</v>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="12"/>
+    </row>
+    <row r="24" spans="1:17" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="44" t="s">
+        <v>139</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="46">
+        <v>20</v>
+      </c>
+      <c r="E24" s="45">
         <v>44045</v>
       </c>
-      <c r="F24" s="46">
+      <c r="F24" s="45">
         <v>44045</v>
       </c>
-      <c r="G24" s="46">
+      <c r="G24" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="H24" s="45">
         <v>44045</v>
       </c>
-      <c r="H24" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="I24" s="46"/>
-      <c r="J24" s="6" t="s">
-        <v>71</v>
-      </c>
+      <c r="I24" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J24" s="23"/>
       <c r="K24" s="23"/>
       <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="47"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="21"/>
       <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="12"/>
-    </row>
-    <row r="25" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="45" t="s">
+      <c r="P24" s="10"/>
+      <c r="Q24" s="12"/>
+    </row>
+    <row r="25" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="B25" s="23" t="s">
-        <v>146</v>
-      </c>
       <c r="C25" s="23" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" s="46">
+        <v>69</v>
+      </c>
+      <c r="E25" s="45">
         <v>44045</v>
       </c>
-      <c r="F25" s="46">
+      <c r="F25" s="45">
         <v>44045</v>
       </c>
-      <c r="G25" s="46">
+      <c r="G25" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="H25" s="45">
         <v>44045</v>
       </c>
-      <c r="H25" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="I25" s="46">
-        <v>44045</v>
-      </c>
-      <c r="J25" s="22" t="s">
-        <v>55</v>
-      </c>
+      <c r="I25" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="J25" s="23"/>
       <c r="K25" s="23"/>
       <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="51"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="21"/>
       <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="12"/>
-    </row>
-    <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="45" t="s">
+      <c r="P25" s="10"/>
+      <c r="Q25" s="12"/>
+    </row>
+    <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="45">
+        <v>44076</v>
+      </c>
+      <c r="F26" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="G26" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="C26" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="E26" s="46">
-        <v>44076</v>
-      </c>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="H26" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="I26" s="23"/>
-      <c r="J26" s="6" t="s">
-        <v>71</v>
-      </c>
+      <c r="H26" s="45">
+        <v>44167</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J26" s="23"/>
       <c r="K26" s="23"/>
       <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="47"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="21"/>
       <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="12"/>
-    </row>
-    <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
-      <c r="B27" s="23"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>147</v>
+      </c>
       <c r="C27" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
+        <v>102</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>150</v>
+      </c>
       <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="22" t="s">
-        <v>71</v>
-      </c>
+      <c r="I27" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="J27" s="23"/>
       <c r="K27" s="23"/>
       <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="57"/>
       <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="12"/>
-    </row>
-    <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="45"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="12"/>
+    </row>
+    <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="44"/>
       <c r="B28" s="23"/>
       <c r="C28" s="23" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D28" s="23"/>
       <c r="E28" s="23"/>
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
       <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="6" t="s">
-        <v>71</v>
-      </c>
+      <c r="I28" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J28" s="23"/>
       <c r="K28" s="23"/>
       <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
+      <c r="M28" s="21"/>
       <c r="N28" s="21"/>
       <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="12"/>
-    </row>
-    <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="12"/>
+    </row>
+    <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="44"/>
       <c r="B29" s="23"/>
       <c r="C29" s="23" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D29" s="23"/>
       <c r="E29" s="23"/>
       <c r="F29" s="23"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="22" t="s">
-        <v>71</v>
-      </c>
+      <c r="I29" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="J29" s="23"/>
       <c r="K29" s="23"/>
       <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
+      <c r="M29" s="21"/>
       <c r="N29" s="21"/>
       <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="12"/>
-    </row>
-    <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="45"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="12"/>
+    </row>
+    <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="44"/>
       <c r="B30" s="23"/>
       <c r="C30" s="23" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D30" s="23"/>
       <c r="E30" s="23"/>
       <c r="F30" s="23"/>
       <c r="G30" s="23"/>
       <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="6" t="s">
-        <v>71</v>
-      </c>
+      <c r="I30" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J30" s="23"/>
       <c r="K30" s="23"/>
       <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
+      <c r="M30" s="21"/>
       <c r="N30" s="21"/>
       <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="12"/>
-    </row>
-    <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="12"/>
+    </row>
+    <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="44"/>
       <c r="B31" s="23"/>
       <c r="C31" s="23" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D31" s="23"/>
       <c r="E31" s="23"/>
       <c r="F31" s="23"/>
       <c r="G31" s="23"/>
       <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="22" t="s">
-        <v>71</v>
-      </c>
+      <c r="I31" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="J31" s="23"/>
       <c r="K31" s="23"/>
       <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
+      <c r="M31" s="21"/>
       <c r="N31" s="21"/>
       <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="12"/>
-    </row>
-    <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="12"/>
+    </row>
+    <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="44"/>
       <c r="B32" s="23"/>
       <c r="C32" s="23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D32" s="23"/>
       <c r="E32" s="23"/>
       <c r="F32" s="23"/>
       <c r="G32" s="23"/>
       <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="6" t="s">
-        <v>71</v>
-      </c>
+      <c r="I32" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J32" s="23"/>
       <c r="K32" s="23"/>
       <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
+      <c r="M32" s="21"/>
       <c r="N32" s="21"/>
       <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="12"/>
-    </row>
-    <row r="33" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="45"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="12"/>
+    </row>
+    <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="44"/>
       <c r="B33" s="23"/>
       <c r="C33" s="23" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D33" s="23"/>
       <c r="E33" s="23"/>
       <c r="F33" s="23"/>
       <c r="G33" s="23"/>
       <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="22" t="s">
-        <v>71</v>
-      </c>
+      <c r="I33" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="J33" s="23"/>
       <c r="K33" s="23"/>
       <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
+      <c r="M33" s="21"/>
       <c r="N33" s="21"/>
       <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="12"/>
-    </row>
-    <row r="34" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="45"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="12"/>
+    </row>
+    <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="44"/>
       <c r="B34" s="23"/>
       <c r="C34" s="23" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D34" s="23"/>
       <c r="E34" s="23"/>
       <c r="F34" s="23"/>
       <c r="G34" s="23"/>
       <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="6" t="s">
-        <v>71</v>
-      </c>
+      <c r="I34" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J34" s="23"/>
       <c r="K34" s="23"/>
       <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
+      <c r="M34" s="21"/>
       <c r="N34" s="21"/>
       <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="12"/>
-    </row>
-    <row r="35" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="45"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="12"/>
+    </row>
+    <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="44"/>
       <c r="B35" s="23"/>
       <c r="C35" s="23" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D35" s="23"/>
       <c r="E35" s="23"/>
       <c r="F35" s="23"/>
       <c r="G35" s="23"/>
       <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="22" t="s">
-        <v>71</v>
-      </c>
+      <c r="I35" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="J35" s="23"/>
       <c r="K35" s="23"/>
       <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
+      <c r="M35" s="21"/>
       <c r="N35" s="21"/>
       <c r="O35" s="21"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="12"/>
-    </row>
-    <row r="36" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="45"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="12"/>
+    </row>
+    <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="44"/>
       <c r="B36" s="23"/>
       <c r="C36" s="23" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D36" s="23"/>
       <c r="E36" s="23"/>
       <c r="F36" s="23"/>
       <c r="G36" s="23"/>
       <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="6" t="s">
-        <v>71</v>
-      </c>
+      <c r="I36" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J36" s="23"/>
       <c r="K36" s="23"/>
       <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
+      <c r="M36" s="21"/>
       <c r="N36" s="21"/>
       <c r="O36" s="21"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="12"/>
-    </row>
-    <row r="37" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="45"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="12"/>
+    </row>
+    <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="44"/>
       <c r="B37" s="23"/>
       <c r="C37" s="23" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D37" s="23"/>
       <c r="E37" s="23"/>
       <c r="F37" s="23"/>
       <c r="G37" s="23"/>
       <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="22" t="s">
-        <v>71</v>
-      </c>
+      <c r="I37" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="J37" s="23"/>
       <c r="K37" s="23"/>
       <c r="L37" s="23"/>
-      <c r="M37" s="23"/>
+      <c r="M37" s="21"/>
       <c r="N37" s="21"/>
       <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="12"/>
-    </row>
-    <row r="38" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="45"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="12"/>
+    </row>
+    <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="44"/>
       <c r="B38" s="23"/>
       <c r="C38" s="23" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D38" s="23"/>
       <c r="E38" s="23"/>
       <c r="F38" s="23"/>
       <c r="G38" s="23"/>
       <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="6" t="s">
-        <v>71</v>
-      </c>
+      <c r="I38" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J38" s="23"/>
       <c r="K38" s="23"/>
       <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
+      <c r="M38" s="21"/>
       <c r="N38" s="21"/>
       <c r="O38" s="21"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="12"/>
-    </row>
-    <row r="39" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="45"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="12"/>
+    </row>
+    <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="44"/>
       <c r="B39" s="23"/>
       <c r="C39" s="23" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D39" s="23"/>
       <c r="E39" s="23"/>
       <c r="F39" s="23"/>
       <c r="G39" s="23"/>
       <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="22" t="s">
-        <v>71</v>
-      </c>
+      <c r="I39" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="J39" s="23"/>
       <c r="K39" s="23"/>
       <c r="L39" s="23"/>
-      <c r="M39" s="23"/>
+      <c r="M39" s="21"/>
       <c r="N39" s="21"/>
       <c r="O39" s="21"/>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="12"/>
-    </row>
-    <row r="40" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="45"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="12"/>
+    </row>
+    <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="44"/>
       <c r="B40" s="23"/>
       <c r="C40" s="23" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D40" s="23"/>
       <c r="E40" s="23"/>
       <c r="F40" s="23"/>
       <c r="G40" s="23"/>
       <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="6" t="s">
-        <v>71</v>
-      </c>
+      <c r="I40" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J40" s="23"/>
       <c r="K40" s="23"/>
       <c r="L40" s="23"/>
-      <c r="M40" s="23"/>
+      <c r="M40" s="21"/>
       <c r="N40" s="21"/>
       <c r="O40" s="21"/>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="12"/>
-    </row>
-    <row r="41" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="45"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="12"/>
+    </row>
+    <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="44"/>
       <c r="B41" s="23"/>
       <c r="C41" s="23" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D41" s="23"/>
       <c r="E41" s="23"/>
       <c r="F41" s="23"/>
       <c r="G41" s="23"/>
       <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="22" t="s">
-        <v>71</v>
-      </c>
+      <c r="I41" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="J41" s="23"/>
       <c r="K41" s="23"/>
       <c r="L41" s="23"/>
-      <c r="M41" s="23"/>
+      <c r="M41" s="21"/>
       <c r="N41" s="21"/>
       <c r="O41" s="21"/>
-      <c r="P41" s="21"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="12"/>
-    </row>
-    <row r="42" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="45"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="12"/>
+    </row>
+    <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="44"/>
       <c r="B42" s="23"/>
       <c r="C42" s="23" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D42" s="23"/>
       <c r="E42" s="23"/>
       <c r="F42" s="23"/>
       <c r="G42" s="23"/>
       <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="6" t="s">
-        <v>71</v>
-      </c>
+      <c r="I42" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J42" s="23"/>
       <c r="K42" s="23"/>
       <c r="L42" s="23"/>
-      <c r="M42" s="23"/>
+      <c r="M42" s="21"/>
       <c r="N42" s="21"/>
       <c r="O42" s="21"/>
-      <c r="P42" s="21"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="12"/>
-    </row>
-    <row r="43" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="45"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="12"/>
+    </row>
+    <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="44"/>
       <c r="B43" s="23"/>
       <c r="C43" s="23" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D43" s="23"/>
       <c r="E43" s="23"/>
       <c r="F43" s="23"/>
       <c r="G43" s="23"/>
       <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="22" t="s">
-        <v>71</v>
-      </c>
+      <c r="I43" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="J43" s="23"/>
       <c r="K43" s="23"/>
       <c r="L43" s="23"/>
-      <c r="M43" s="23"/>
+      <c r="M43" s="21"/>
       <c r="N43" s="21"/>
       <c r="O43" s="21"/>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="12"/>
-    </row>
-    <row r="44" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="45"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="12"/>
+    </row>
+    <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="44"/>
       <c r="B44" s="23"/>
       <c r="C44" s="23" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D44" s="23"/>
       <c r="E44" s="23"/>
       <c r="F44" s="23"/>
       <c r="G44" s="23"/>
       <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="6" t="s">
-        <v>71</v>
-      </c>
+      <c r="I44" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J44" s="23"/>
       <c r="K44" s="23"/>
       <c r="L44" s="23"/>
-      <c r="M44" s="23"/>
+      <c r="M44" s="21"/>
       <c r="N44" s="21"/>
       <c r="O44" s="21"/>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="10"/>
-      <c r="R44" s="12"/>
-    </row>
-    <row r="45" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="45"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="12"/>
+    </row>
+    <row r="45" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="44"/>
       <c r="B45" s="23"/>
       <c r="C45" s="23" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D45" s="23"/>
       <c r="E45" s="23"/>
       <c r="F45" s="23"/>
       <c r="G45" s="23"/>
       <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="22" t="s">
-        <v>71</v>
-      </c>
+      <c r="I45" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="J45" s="23"/>
       <c r="K45" s="23"/>
       <c r="L45" s="23"/>
-      <c r="M45" s="23"/>
+      <c r="M45" s="21"/>
       <c r="N45" s="21"/>
       <c r="O45" s="21"/>
-      <c r="P45" s="21"/>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="12"/>
-    </row>
-    <row r="46" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="45"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="12"/>
+    </row>
+    <row r="46" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="44"/>
       <c r="B46" s="23"/>
       <c r="C46" s="23" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D46" s="23"/>
       <c r="E46" s="23"/>
       <c r="F46" s="23"/>
       <c r="G46" s="23"/>
       <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="6" t="s">
-        <v>71</v>
-      </c>
+      <c r="I46" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J46" s="23"/>
       <c r="K46" s="23"/>
       <c r="L46" s="23"/>
-      <c r="M46" s="23"/>
+      <c r="M46" s="21"/>
       <c r="N46" s="21"/>
       <c r="O46" s="21"/>
-      <c r="P46" s="21"/>
-      <c r="Q46" s="10"/>
-      <c r="R46" s="12"/>
-    </row>
-    <row r="47" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="45"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="12"/>
+    </row>
+    <row r="47" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="44"/>
       <c r="B47" s="23"/>
       <c r="C47" s="23" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D47" s="23"/>
       <c r="E47" s="23"/>
       <c r="F47" s="23"/>
       <c r="G47" s="23"/>
       <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="22" t="s">
-        <v>71</v>
-      </c>
+      <c r="I47" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="J47" s="23"/>
       <c r="K47" s="23"/>
       <c r="L47" s="23"/>
-      <c r="M47" s="23"/>
+      <c r="M47" s="21"/>
       <c r="N47" s="21"/>
       <c r="O47" s="21"/>
-      <c r="P47" s="21"/>
-      <c r="Q47" s="10"/>
-      <c r="R47" s="12"/>
-    </row>
-    <row r="48" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="45"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="12"/>
+    </row>
+    <row r="48" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="44"/>
       <c r="B48" s="23"/>
       <c r="C48" s="23" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D48" s="23"/>
       <c r="E48" s="23"/>
       <c r="F48" s="23"/>
       <c r="G48" s="23"/>
       <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="6" t="s">
-        <v>71</v>
-      </c>
+      <c r="I48" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J48" s="23"/>
       <c r="K48" s="23"/>
       <c r="L48" s="23"/>
-      <c r="M48" s="23"/>
+      <c r="M48" s="21"/>
       <c r="N48" s="21"/>
       <c r="O48" s="21"/>
-      <c r="P48" s="21"/>
-      <c r="Q48" s="10"/>
-      <c r="R48" s="12"/>
-    </row>
-    <row r="49" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="45"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="12"/>
+    </row>
+    <row r="49" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="44"/>
       <c r="B49" s="23"/>
       <c r="C49" s="23" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D49" s="23"/>
       <c r="E49" s="23"/>
       <c r="F49" s="23"/>
       <c r="G49" s="23"/>
       <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="22" t="s">
-        <v>71</v>
-      </c>
+      <c r="I49" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="J49" s="23"/>
       <c r="K49" s="23"/>
       <c r="L49" s="23"/>
-      <c r="M49" s="23"/>
+      <c r="M49" s="21"/>
       <c r="N49" s="21"/>
       <c r="O49" s="21"/>
-      <c r="P49" s="21"/>
-      <c r="Q49" s="10"/>
-      <c r="R49" s="12"/>
-    </row>
-    <row r="50" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="45"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="12"/>
+    </row>
+    <row r="50" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="44"/>
       <c r="B50" s="23"/>
       <c r="C50" s="23" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D50" s="23"/>
       <c r="E50" s="23"/>
       <c r="F50" s="23"/>
       <c r="G50" s="23"/>
       <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="6" t="s">
-        <v>71</v>
-      </c>
+      <c r="I50" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J50" s="23"/>
       <c r="K50" s="23"/>
       <c r="L50" s="23"/>
-      <c r="M50" s="23"/>
+      <c r="M50" s="21"/>
       <c r="N50" s="21"/>
       <c r="O50" s="21"/>
-      <c r="P50" s="21"/>
-      <c r="Q50" s="10"/>
-      <c r="R50" s="12"/>
-    </row>
-    <row r="51" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="45"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="12"/>
+    </row>
+    <row r="51" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="44"/>
       <c r="B51" s="23"/>
       <c r="C51" s="23" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D51" s="23"/>
       <c r="E51" s="23"/>
       <c r="F51" s="23"/>
       <c r="G51" s="23"/>
       <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="22" t="s">
-        <v>71</v>
-      </c>
+      <c r="I51" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="J51" s="23"/>
       <c r="K51" s="23"/>
       <c r="L51" s="23"/>
-      <c r="M51" s="23"/>
+      <c r="M51" s="21"/>
       <c r="N51" s="21"/>
       <c r="O51" s="21"/>
-      <c r="P51" s="21"/>
-      <c r="Q51" s="10"/>
-      <c r="R51" s="12"/>
-    </row>
-    <row r="52" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="45"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="12"/>
+    </row>
+    <row r="52" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="44"/>
       <c r="B52" s="23"/>
       <c r="C52" s="23" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D52" s="23"/>
       <c r="E52" s="23"/>
       <c r="F52" s="23"/>
       <c r="G52" s="23"/>
       <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="6" t="s">
-        <v>71</v>
-      </c>
+      <c r="I52" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J52" s="23"/>
       <c r="K52" s="23"/>
       <c r="L52" s="23"/>
-      <c r="M52" s="23"/>
+      <c r="M52" s="21"/>
       <c r="N52" s="21"/>
       <c r="O52" s="21"/>
-      <c r="P52" s="21"/>
-      <c r="Q52" s="10"/>
-      <c r="R52" s="12"/>
-    </row>
-    <row r="53" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="45"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="12"/>
+    </row>
+    <row r="53" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="44"/>
       <c r="B53" s="23"/>
       <c r="C53" s="23" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D53" s="23"/>
       <c r="E53" s="23"/>
       <c r="F53" s="23"/>
       <c r="G53" s="23"/>
       <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="22" t="s">
-        <v>71</v>
-      </c>
+      <c r="I53" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="J53" s="23"/>
       <c r="K53" s="23"/>
       <c r="L53" s="23"/>
-      <c r="M53" s="23"/>
+      <c r="M53" s="21"/>
       <c r="N53" s="21"/>
       <c r="O53" s="21"/>
-      <c r="P53" s="21"/>
-      <c r="Q53" s="10"/>
-      <c r="R53" s="12"/>
-    </row>
-    <row r="54" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="45"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="12"/>
+    </row>
+    <row r="54" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="44"/>
       <c r="B54" s="23"/>
       <c r="C54" s="23" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D54" s="23"/>
       <c r="E54" s="23"/>
       <c r="F54" s="23"/>
       <c r="G54" s="23"/>
       <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="6" t="s">
-        <v>71</v>
-      </c>
+      <c r="I54" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J54" s="23"/>
       <c r="K54" s="23"/>
       <c r="L54" s="23"/>
-      <c r="M54" s="23"/>
+      <c r="M54" s="21"/>
       <c r="N54" s="21"/>
       <c r="O54" s="21"/>
-      <c r="P54" s="21"/>
-      <c r="Q54" s="10"/>
-      <c r="R54" s="12"/>
-    </row>
-    <row r="55" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="45"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="12"/>
+    </row>
+    <row r="55" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="44"/>
       <c r="B55" s="23"/>
       <c r="C55" s="23" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D55" s="23"/>
       <c r="E55" s="23"/>
       <c r="F55" s="23"/>
       <c r="G55" s="23"/>
       <c r="H55" s="23"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="22" t="s">
-        <v>71</v>
-      </c>
+      <c r="I55" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="J55" s="23"/>
       <c r="K55" s="23"/>
       <c r="L55" s="23"/>
-      <c r="M55" s="23"/>
+      <c r="M55" s="21"/>
       <c r="N55" s="21"/>
       <c r="O55" s="21"/>
-      <c r="P55" s="21"/>
-      <c r="Q55" s="10"/>
-      <c r="R55" s="12"/>
-    </row>
-    <row r="56" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="45"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="12"/>
+    </row>
+    <row r="56" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="44"/>
       <c r="B56" s="23"/>
       <c r="C56" s="23" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D56" s="23"/>
       <c r="E56" s="23"/>
       <c r="F56" s="23"/>
       <c r="G56" s="23"/>
       <c r="H56" s="23"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="6" t="s">
-        <v>71</v>
-      </c>
+      <c r="I56" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J56" s="23"/>
       <c r="K56" s="23"/>
       <c r="L56" s="23"/>
-      <c r="M56" s="23"/>
+      <c r="M56" s="21"/>
       <c r="N56" s="21"/>
       <c r="O56" s="21"/>
-      <c r="P56" s="21"/>
-      <c r="Q56" s="10"/>
-      <c r="R56" s="12"/>
-    </row>
-    <row r="57" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="45"/>
+      <c r="P56" s="10"/>
+      <c r="Q56" s="12"/>
+    </row>
+    <row r="57" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="44"/>
       <c r="B57" s="23"/>
       <c r="C57" s="23" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D57" s="23"/>
       <c r="E57" s="23"/>
       <c r="F57" s="23"/>
       <c r="G57" s="23"/>
       <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="22" t="s">
-        <v>71</v>
-      </c>
+      <c r="I57" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="J57" s="23"/>
       <c r="K57" s="23"/>
       <c r="L57" s="23"/>
-      <c r="M57" s="23"/>
+      <c r="M57" s="21"/>
       <c r="N57" s="21"/>
       <c r="O57" s="21"/>
-      <c r="P57" s="21"/>
-      <c r="Q57" s="10"/>
-      <c r="R57" s="12"/>
-    </row>
-    <row r="58" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="45"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="12"/>
+    </row>
+    <row r="58" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="44"/>
       <c r="B58" s="23"/>
       <c r="C58" s="23" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D58" s="23"/>
       <c r="E58" s="23"/>
       <c r="F58" s="23"/>
       <c r="G58" s="23"/>
       <c r="H58" s="23"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="6" t="s">
-        <v>71</v>
-      </c>
+      <c r="I58" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J58" s="23"/>
       <c r="K58" s="23"/>
       <c r="L58" s="23"/>
-      <c r="M58" s="23"/>
+      <c r="M58" s="21"/>
       <c r="N58" s="21"/>
       <c r="O58" s="21"/>
-      <c r="P58" s="21"/>
-      <c r="Q58" s="10"/>
-      <c r="R58" s="12"/>
-    </row>
-    <row r="59" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="45"/>
+      <c r="P58" s="10"/>
+      <c r="Q58" s="12"/>
+    </row>
+    <row r="59" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="44"/>
       <c r="B59" s="23"/>
       <c r="C59" s="23" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D59" s="23"/>
       <c r="E59" s="23"/>
       <c r="F59" s="23"/>
       <c r="G59" s="23"/>
       <c r="H59" s="23"/>
-      <c r="I59" s="23"/>
-      <c r="J59" s="22" t="s">
-        <v>71</v>
-      </c>
+      <c r="I59" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="J59" s="23"/>
       <c r="K59" s="23"/>
       <c r="L59" s="23"/>
-      <c r="M59" s="23"/>
+      <c r="M59" s="21"/>
       <c r="N59" s="21"/>
       <c r="O59" s="21"/>
-      <c r="P59" s="21"/>
-      <c r="Q59" s="10"/>
-      <c r="R59" s="12"/>
-    </row>
-    <row r="60" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="45"/>
+      <c r="P59" s="10"/>
+      <c r="Q59" s="12"/>
+    </row>
+    <row r="60" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="44"/>
       <c r="B60" s="23"/>
       <c r="C60" s="23" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D60" s="23"/>
       <c r="E60" s="23"/>
       <c r="F60" s="23"/>
       <c r="G60" s="23"/>
       <c r="H60" s="23"/>
-      <c r="I60" s="23"/>
-      <c r="J60" s="6" t="s">
-        <v>71</v>
-      </c>
+      <c r="I60" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J60" s="23"/>
       <c r="K60" s="23"/>
       <c r="L60" s="23"/>
-      <c r="M60" s="23"/>
+      <c r="M60" s="21"/>
       <c r="N60" s="21"/>
       <c r="O60" s="21"/>
-      <c r="P60" s="21"/>
-      <c r="Q60" s="10"/>
-      <c r="R60" s="12"/>
-    </row>
-    <row r="61" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="45"/>
+      <c r="P60" s="10"/>
+      <c r="Q60" s="12"/>
+    </row>
+    <row r="61" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="44"/>
       <c r="B61" s="23"/>
       <c r="C61" s="23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D61" s="23"/>
       <c r="E61" s="23"/>
       <c r="F61" s="23"/>
       <c r="G61" s="23"/>
       <c r="H61" s="23"/>
-      <c r="I61" s="23"/>
-      <c r="J61" s="22" t="s">
-        <v>71</v>
-      </c>
+      <c r="I61" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="J61" s="23"/>
       <c r="K61" s="23"/>
       <c r="L61" s="23"/>
-      <c r="M61" s="23"/>
+      <c r="M61" s="21"/>
       <c r="N61" s="21"/>
       <c r="O61" s="21"/>
-      <c r="P61" s="21"/>
-      <c r="Q61" s="10"/>
-      <c r="R61" s="12"/>
-    </row>
-    <row r="62" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="48"/>
-      <c r="B62" s="49"/>
-      <c r="C62" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="D62" s="49"/>
-      <c r="E62" s="49"/>
-      <c r="F62" s="49"/>
-      <c r="G62" s="49"/>
-      <c r="H62" s="49"/>
-      <c r="I62" s="49"/>
-      <c r="J62" s="49"/>
-      <c r="K62" s="49"/>
-      <c r="L62" s="49"/>
-      <c r="M62" s="49"/>
-      <c r="N62" s="49"/>
-      <c r="O62" s="49"/>
-      <c r="P62" s="49"/>
-      <c r="Q62" s="49"/>
-      <c r="R62" s="13"/>
-    </row>
-    <row r="63" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="P61" s="10"/>
+      <c r="Q61" s="12"/>
+    </row>
+    <row r="62" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="46"/>
+      <c r="B62" s="47"/>
+      <c r="C62" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="D62" s="47"/>
+      <c r="E62" s="47"/>
+      <c r="F62" s="47"/>
+      <c r="G62" s="47"/>
+      <c r="H62" s="47"/>
+      <c r="I62" s="47"/>
+      <c r="J62" s="47"/>
+      <c r="K62" s="47"/>
+      <c r="L62" s="47"/>
+      <c r="M62" s="47"/>
+      <c r="N62" s="47"/>
+      <c r="O62" s="47"/>
+      <c r="P62" s="47"/>
+      <c r="Q62" s="13"/>
+    </row>
+    <row r="63" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4058,12 +3986,12 @@
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:C3"/>
-    <mergeCell ref="D1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:S3"/>
+    <mergeCell ref="D1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:R3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J5:J61">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I5:I61">
       <formula1>"Asseigned,In progress,done,Revised"</formula1>
     </dataValidation>
   </dataValidations>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="153">
   <si>
     <t>Team Lead: Youssef Kamal</t>
   </si>
@@ -475,6 +475,9 @@
   </si>
   <si>
     <t>Note the sara was occupies with the make hakathon</t>
+  </si>
+  <si>
+    <t>16/2/2020</t>
   </si>
 </sst>
 </file>
@@ -905,7 +908,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1016,6 +1019,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1026,8 +1030,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1246,7 +1248,7 @@
   <dimension ref="A1:S1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1266,74 +1268,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="55" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="55" t="s">
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
       <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -2199,7 +2201,7 @@
       <c r="J26" s="23"/>
       <c r="K26" s="23"/>
       <c r="L26" s="23"/>
-      <c r="M26" s="56"/>
+      <c r="M26" s="50"/>
       <c r="N26" s="21"/>
       <c r="O26" s="21"/>
       <c r="P26" s="10"/>
@@ -2229,15 +2231,17 @@
       <c r="G27" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="H27" s="23"/>
+      <c r="H27" s="23" t="s">
+        <v>152</v>
+      </c>
       <c r="I27" s="22" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="J27" s="23"/>
       <c r="K27" s="23"/>
       <c r="L27" s="23"/>
       <c r="M27" s="21"/>
-      <c r="N27" s="57"/>
+      <c r="N27" s="50"/>
       <c r="O27" s="21"/>
       <c r="P27" s="10"/>
       <c r="Q27" s="12"/>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="158">
   <si>
     <t>Team Lead: Youssef Kamal</t>
   </si>
@@ -474,10 +474,25 @@
     <t>4 days</t>
   </si>
   <si>
-    <t>Note the sara was occupies with the make hakathon</t>
-  </si>
-  <si>
     <t>16/2/2020</t>
+  </si>
+  <si>
+    <t>SRS_REV_TASK024_V1</t>
+  </si>
+  <si>
+    <t>Update SRS sheet according to the open points in the review sheet. Please don’t close them by yourself.</t>
+  </si>
+  <si>
+    <t>21/2/2020</t>
+  </si>
+  <si>
+    <t>22/2/2020</t>
+  </si>
+  <si>
+    <t>1 day</t>
+  </si>
+  <si>
+    <t>Note the sara was occupies with the make hakathon.</t>
   </si>
 </sst>
 </file>
@@ -554,7 +569,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -615,8 +630,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -904,11 +925,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1029,6 +1061,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1247,8 +1283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="F25" workbookViewId="0">
+      <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2205,8 +2241,8 @@
       <c r="N26" s="21"/>
       <c r="O26" s="21"/>
       <c r="P26" s="10"/>
-      <c r="Q26" s="12" t="s">
-        <v>151</v>
+      <c r="Q26" s="58" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2232,7 +2268,7 @@
         <v>150</v>
       </c>
       <c r="H27" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I27" s="22" t="s">
         <v>53</v>
@@ -2244,18 +2280,30 @@
       <c r="N27" s="50"/>
       <c r="O27" s="21"/>
       <c r="P27" s="10"/>
-      <c r="Q27" s="12"/>
+      <c r="Q27" s="58"/>
     </row>
     <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
-      <c r="B28" s="23"/>
+      <c r="A28" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>153</v>
+      </c>
       <c r="C28" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
+      <c r="D28" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>156</v>
+      </c>
       <c r="H28" s="23"/>
       <c r="I28" s="6" t="s">
         <v>68</v>
@@ -2264,7 +2312,7 @@
       <c r="K28" s="23"/>
       <c r="L28" s="23"/>
       <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
+      <c r="N28" s="57"/>
       <c r="O28" s="21"/>
       <c r="P28" s="10"/>
       <c r="Q28" s="12"/>
@@ -3988,11 +4036,12 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:C3"/>
     <mergeCell ref="D1:F3"/>
     <mergeCell ref="G1:G3"/>
     <mergeCell ref="H1:R3"/>
+    <mergeCell ref="Q26:Q27"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I5:I61">

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="156">
   <si>
     <t>Team Lead: Youssef Kamal</t>
   </si>
@@ -477,22 +477,16 @@
     <t>16/2/2020</t>
   </si>
   <si>
-    <t>SRS_REV_TASK024_V1</t>
-  </si>
-  <si>
-    <t>Update SRS sheet according to the open points in the review sheet. Please don’t close them by yourself.</t>
-  </si>
-  <si>
     <t>21/2/2020</t>
   </si>
   <si>
-    <t>22/2/2020</t>
-  </si>
-  <si>
-    <t>1 day</t>
-  </si>
-  <si>
     <t>Note the sara was occupies with the make hakathon.</t>
+  </si>
+  <si>
+    <t>Update SRS sheet according to the open points in the review sheet. Please don’t close them by yourself. Also remove the HSl from the refrtence table. Also make a time line for the sequence in all modes.</t>
+  </si>
+  <si>
+    <t>SRS_REV_TASK024_V2</t>
   </si>
 </sst>
 </file>
@@ -1052,6 +1046,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1062,7 +1057,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1283,8 +1277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F25" workbookViewId="0">
-      <selection activeCell="T32" sqref="T32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1304,74 +1298,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="56" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="56" t="s">
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="H1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="54"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
       <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -2242,7 +2236,7 @@
       <c r="O26" s="21"/>
       <c r="P26" s="10"/>
       <c r="Q26" s="58" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2282,28 +2276,24 @@
       <c r="P27" s="10"/>
       <c r="Q27" s="58"/>
     </row>
-    <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="44" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C28" s="23" t="s">
         <v>103</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="G28" s="23" t="s">
-        <v>156</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
       <c r="H28" s="23"/>
       <c r="I28" s="6" t="s">
         <v>68</v>
@@ -2312,7 +2302,7 @@
       <c r="K28" s="23"/>
       <c r="L28" s="23"/>
       <c r="M28" s="21"/>
-      <c r="N28" s="57"/>
+      <c r="N28" s="51"/>
       <c r="O28" s="21"/>
       <c r="P28" s="10"/>
       <c r="Q28" s="12"/>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="162">
   <si>
     <t>Team Lead: Youssef Kamal</t>
   </si>
@@ -487,6 +487,24 @@
   </si>
   <si>
     <t>SRS_REV_TASK024_V2</t>
+  </si>
+  <si>
+    <t>22/2/2020</t>
+  </si>
+  <si>
+    <t>1 day</t>
+  </si>
+  <si>
+    <t>GDD_TASK025_V1</t>
+  </si>
+  <si>
+    <t>make basic structure of GDD</t>
+  </si>
+  <si>
+    <t>23/2/2020</t>
+  </si>
+  <si>
+    <t>2 days</t>
   </si>
 </sst>
 </file>
@@ -563,7 +581,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -627,6 +645,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -934,7 +958,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1046,7 +1070,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1060,6 +1084,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1277,8 +1303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2157,7 +2183,7 @@
       <c r="J24" s="23"/>
       <c r="K24" s="23"/>
       <c r="L24" s="23"/>
-      <c r="M24" s="49"/>
+      <c r="M24" s="60"/>
       <c r="N24" s="21"/>
       <c r="O24" s="21"/>
       <c r="P24" s="10"/>
@@ -2292,11 +2318,17 @@
       <c r="E28" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
+      <c r="F28" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="H28" s="23" t="s">
+        <v>152</v>
+      </c>
       <c r="I28" s="6" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="J28" s="23"/>
       <c r="K28" s="23"/>
@@ -2308,15 +2340,27 @@
       <c r="Q28" s="12"/>
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
-      <c r="B29" s="23"/>
+      <c r="A29" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>159</v>
+      </c>
       <c r="C29" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
+      <c r="D29" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>161</v>
+      </c>
       <c r="H29" s="23"/>
       <c r="I29" s="22" t="s">
         <v>68</v>
@@ -2325,7 +2369,7 @@
       <c r="K29" s="23"/>
       <c r="L29" s="23"/>
       <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
+      <c r="N29" s="59"/>
       <c r="O29" s="21"/>
       <c r="P29" s="10"/>
       <c r="Q29" s="12"/>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="166">
   <si>
     <t>Team Lead: Youssef Kamal</t>
   </si>
@@ -498,13 +498,25 @@
     <t>GDD_TASK025_V1</t>
   </si>
   <si>
-    <t>make basic structure of GDD</t>
-  </si>
-  <si>
     <t>23/2/2020</t>
   </si>
   <si>
     <t>2 days</t>
+  </si>
+  <si>
+    <t>25/2/2020</t>
+  </si>
+  <si>
+    <t>SRS_REV_TASK026_V1</t>
+  </si>
+  <si>
+    <t>Make basic structure of GDD</t>
+  </si>
+  <si>
+    <t>Start changing the SRS document according to review 11 to 15.</t>
+  </si>
+  <si>
+    <t>27/2/2020</t>
   </si>
 </sst>
 </file>
@@ -655,7 +667,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -954,11 +966,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1071,6 +1092,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1084,8 +1109,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1303,8 +1326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1324,74 +1347,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="57" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="57" t="s">
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="55"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
       <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -2183,7 +2206,7 @@
       <c r="J24" s="23"/>
       <c r="K24" s="23"/>
       <c r="L24" s="23"/>
-      <c r="M24" s="60"/>
+      <c r="M24" s="53"/>
       <c r="N24" s="21"/>
       <c r="O24" s="21"/>
       <c r="P24" s="10"/>
@@ -2261,7 +2284,7 @@
       <c r="N26" s="21"/>
       <c r="O26" s="21"/>
       <c r="P26" s="10"/>
-      <c r="Q26" s="58" t="s">
+      <c r="Q26" s="62" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2297,10 +2320,10 @@
       <c r="K27" s="23"/>
       <c r="L27" s="23"/>
       <c r="M27" s="21"/>
-      <c r="N27" s="50"/>
+      <c r="N27" s="55"/>
       <c r="O27" s="21"/>
       <c r="P27" s="10"/>
-      <c r="Q27" s="58"/>
+      <c r="Q27" s="62"/>
     </row>
     <row r="28" spans="1:17" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="44" t="s">
@@ -2344,7 +2367,7 @@
         <v>158</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C29" s="23" t="s">
         <v>104</v>
@@ -2356,10 +2379,10 @@
         <v>152</v>
       </c>
       <c r="F29" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="G29" s="23" t="s">
         <v>160</v>
-      </c>
-      <c r="G29" s="23" t="s">
-        <v>161</v>
       </c>
       <c r="H29" s="23"/>
       <c r="I29" s="22" t="s">
@@ -2369,21 +2392,33 @@
       <c r="K29" s="23"/>
       <c r="L29" s="23"/>
       <c r="M29" s="21"/>
-      <c r="N29" s="59"/>
-      <c r="O29" s="21"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="54"/>
       <c r="P29" s="10"/>
       <c r="Q29" s="12"/>
     </row>
     <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
-      <c r="B30" s="23"/>
+      <c r="A30" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>164</v>
+      </c>
       <c r="C30" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
+      <c r="D30" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>160</v>
+      </c>
       <c r="H30" s="23"/>
       <c r="I30" s="6" t="s">
         <v>68</v>
@@ -2393,7 +2428,7 @@
       <c r="L30" s="23"/>
       <c r="M30" s="21"/>
       <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
+      <c r="O30" s="52"/>
       <c r="P30" s="10"/>
       <c r="Q30" s="12"/>
     </row>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="169">
   <si>
     <t>Team Lead: Youssef Kamal</t>
   </si>
@@ -517,6 +517,15 @@
   </si>
   <si>
     <t>27/2/2020</t>
+  </si>
+  <si>
+    <t>GDD_TASK027_V1</t>
+  </si>
+  <si>
+    <t>Make GDD file</t>
+  </si>
+  <si>
+    <t>28/2/2020</t>
   </si>
 </sst>
 </file>
@@ -979,7 +988,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1108,6 +1117,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1326,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="E25" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2363,29 +2381,29 @@
       <c r="Q28" s="12"/>
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="64" t="s">
         <v>163</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="23" t="s">
+      <c r="E29" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="F29" s="23" t="s">
+      <c r="F29" s="64" t="s">
         <v>159</v>
       </c>
-      <c r="G29" s="23" t="s">
+      <c r="G29" s="64" t="s">
         <v>160</v>
       </c>
-      <c r="H29" s="23"/>
-      <c r="I29" s="22" t="s">
+      <c r="H29" s="64"/>
+      <c r="I29" s="65" t="s">
         <v>68</v>
       </c>
       <c r="J29" s="23"/>
@@ -2419,9 +2437,11 @@
       <c r="G30" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="H30" s="23"/>
+      <c r="H30" s="23" t="s">
+        <v>165</v>
+      </c>
       <c r="I30" s="6" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="J30" s="23"/>
       <c r="K30" s="23"/>
@@ -2433,15 +2453,27 @@
       <c r="Q30" s="12"/>
     </row>
     <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
-      <c r="B31" s="23"/>
+      <c r="A31" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>167</v>
+      </c>
       <c r="C31" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
+      <c r="D31" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>157</v>
+      </c>
       <c r="H31" s="23"/>
       <c r="I31" s="22" t="s">
         <v>68</v>
@@ -2451,7 +2483,7 @@
       <c r="L31" s="23"/>
       <c r="M31" s="21"/>
       <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
+      <c r="O31" s="52"/>
       <c r="P31" s="10"/>
       <c r="Q31" s="12"/>
     </row>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="179">
   <si>
     <t>Team Lead: Youssef Kamal</t>
   </si>
@@ -526,6 +526,36 @@
   </si>
   <si>
     <t>28/2/2020</t>
+  </si>
+  <si>
+    <t>Change Software Context as defined in lecture. ie. Remove input feature and output feature and add stand alone switches and LED outputs.</t>
+  </si>
+  <si>
+    <t>SRS_SW_CONT_TASK028_V1</t>
+  </si>
+  <si>
+    <t>GDD_TASK029_V1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make add software context in the firs page after the change in TASK028. add software feature with input feature, output feature and microcontroller feature. Add requirment ID to all public API's. change API table to input parameter and return. Add description to all input parameters. remove the description of how to implement the function. </t>
+  </si>
+  <si>
+    <t>CDD_TAIL_MOD_TASK030_V1</t>
+  </si>
+  <si>
+    <t>CDD_GPIO_MOD_TASK031_V1</t>
+  </si>
+  <si>
+    <t>Make CDD for GPIO module</t>
+  </si>
+  <si>
+    <t>Make CDD for TAIL Module</t>
+  </si>
+  <si>
+    <t>Youssef</t>
+  </si>
+  <si>
+    <t>3 days</t>
   </si>
 </sst>
 </file>
@@ -602,7 +632,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -672,6 +702,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -988,7 +1030,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1093,7 +1135,6 @@
     <xf numFmtId="14" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1101,10 +1142,17 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1118,13 +1166,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1344,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E25" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2224,7 +2275,7 @@
       <c r="J24" s="23"/>
       <c r="K24" s="23"/>
       <c r="L24" s="23"/>
-      <c r="M24" s="53"/>
+      <c r="M24" s="51"/>
       <c r="N24" s="21"/>
       <c r="O24" s="21"/>
       <c r="P24" s="10"/>
@@ -2261,7 +2312,7 @@
       <c r="J25" s="23"/>
       <c r="K25" s="23"/>
       <c r="L25" s="23"/>
-      <c r="M25" s="49"/>
+      <c r="M25" s="48"/>
       <c r="N25" s="21"/>
       <c r="O25" s="21"/>
       <c r="P25" s="10"/>
@@ -2298,7 +2349,7 @@
       <c r="J26" s="23"/>
       <c r="K26" s="23"/>
       <c r="L26" s="23"/>
-      <c r="M26" s="50"/>
+      <c r="M26" s="49"/>
       <c r="N26" s="21"/>
       <c r="O26" s="21"/>
       <c r="P26" s="10"/>
@@ -2338,7 +2389,7 @@
       <c r="K27" s="23"/>
       <c r="L27" s="23"/>
       <c r="M27" s="21"/>
-      <c r="N27" s="55"/>
+      <c r="N27" s="52"/>
       <c r="O27" s="21"/>
       <c r="P27" s="10"/>
       <c r="Q27" s="62"/>
@@ -2375,47 +2426,47 @@
       <c r="K28" s="23"/>
       <c r="L28" s="23"/>
       <c r="M28" s="21"/>
-      <c r="N28" s="51"/>
+      <c r="N28" s="50"/>
       <c r="O28" s="21"/>
       <c r="P28" s="10"/>
       <c r="Q28" s="12"/>
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="63" t="s">
+      <c r="A29" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="B29" s="64" t="s">
+      <c r="B29" s="54" t="s">
         <v>163</v>
       </c>
-      <c r="C29" s="64" t="s">
+      <c r="C29" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="64" t="s">
+      <c r="D29" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="64" t="s">
+      <c r="E29" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="F29" s="64" t="s">
+      <c r="F29" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="G29" s="64" t="s">
+      <c r="G29" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="H29" s="64"/>
-      <c r="I29" s="65" t="s">
+      <c r="H29" s="54"/>
+      <c r="I29" s="55" t="s">
         <v>68</v>
       </c>
       <c r="J29" s="23"/>
       <c r="K29" s="23"/>
       <c r="L29" s="23"/>
       <c r="M29" s="21"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="54"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="64"/>
       <c r="P29" s="10"/>
       <c r="Q29" s="12"/>
     </row>
-    <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="44" t="s">
         <v>162</v>
       </c>
@@ -2448,7 +2499,7 @@
       <c r="L30" s="23"/>
       <c r="M30" s="21"/>
       <c r="N30" s="21"/>
-      <c r="O30" s="52"/>
+      <c r="O30" s="50"/>
       <c r="P30" s="10"/>
       <c r="Q30" s="12"/>
     </row>
@@ -2483,20 +2534,32 @@
       <c r="L31" s="23"/>
       <c r="M31" s="21"/>
       <c r="N31" s="21"/>
-      <c r="O31" s="52"/>
+      <c r="O31" s="65"/>
       <c r="P31" s="10"/>
       <c r="Q31" s="12"/>
     </row>
-    <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
-      <c r="B32" s="23"/>
+    <row r="32" spans="1:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>169</v>
+      </c>
       <c r="C32" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
+      <c r="D32" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="45">
+        <v>43891</v>
+      </c>
+      <c r="F32" s="45">
+        <v>43892</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>157</v>
+      </c>
       <c r="H32" s="23"/>
       <c r="I32" s="6" t="s">
         <v>68</v>
@@ -2507,19 +2570,31 @@
       <c r="M32" s="21"/>
       <c r="N32" s="21"/>
       <c r="O32" s="21"/>
-      <c r="P32" s="10"/>
+      <c r="P32" s="66"/>
       <c r="Q32" s="12"/>
     </row>
-    <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
-      <c r="B33" s="23"/>
+    <row r="33" spans="1:17" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>172</v>
+      </c>
       <c r="C33" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
+      <c r="D33" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="45">
+        <v>43891</v>
+      </c>
+      <c r="F33" s="45">
+        <v>43892</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>157</v>
+      </c>
       <c r="H33" s="23"/>
       <c r="I33" s="22" t="s">
         <v>68</v>
@@ -2530,19 +2605,31 @@
       <c r="M33" s="21"/>
       <c r="N33" s="21"/>
       <c r="O33" s="21"/>
-      <c r="P33" s="10"/>
+      <c r="P33" s="67"/>
       <c r="Q33" s="12"/>
     </row>
     <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
-      <c r="B34" s="23"/>
+      <c r="A34" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>176</v>
+      </c>
       <c r="C34" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
+      <c r="D34" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="45">
+        <v>43892</v>
+      </c>
+      <c r="F34" s="45">
+        <v>43895</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>178</v>
+      </c>
       <c r="H34" s="23"/>
       <c r="I34" s="6" t="s">
         <v>68</v>
@@ -2553,19 +2640,31 @@
       <c r="M34" s="21"/>
       <c r="N34" s="21"/>
       <c r="O34" s="21"/>
-      <c r="P34" s="10"/>
+      <c r="P34" s="68"/>
       <c r="Q34" s="12"/>
     </row>
     <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
-      <c r="B35" s="23"/>
+      <c r="A35" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>175</v>
+      </c>
       <c r="C35" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
+      <c r="D35" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="E35" s="45">
+        <v>43892</v>
+      </c>
+      <c r="F35" s="45">
+        <v>43895</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>178</v>
+      </c>
       <c r="H35" s="23"/>
       <c r="I35" s="22" t="s">
         <v>68</v>
@@ -2576,7 +2675,7 @@
       <c r="M35" s="21"/>
       <c r="N35" s="21"/>
       <c r="O35" s="21"/>
-      <c r="P35" s="10"/>
+      <c r="P35" s="68"/>
       <c r="Q35" s="12"/>
     </row>
     <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3178,24 +3277,24 @@
       <c r="Q61" s="12"/>
     </row>
     <row r="62" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="46"/>
-      <c r="B62" s="47"/>
-      <c r="C62" s="48" t="s">
+      <c r="A62" s="69"/>
+      <c r="B62" s="70"/>
+      <c r="C62" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="D62" s="47"/>
-      <c r="E62" s="47"/>
-      <c r="F62" s="47"/>
-      <c r="G62" s="47"/>
-      <c r="H62" s="47"/>
-      <c r="I62" s="47"/>
-      <c r="J62" s="47"/>
-      <c r="K62" s="47"/>
-      <c r="L62" s="47"/>
-      <c r="M62" s="47"/>
-      <c r="N62" s="47"/>
-      <c r="O62" s="47"/>
-      <c r="P62" s="47"/>
+      <c r="D62" s="70"/>
+      <c r="E62" s="70"/>
+      <c r="F62" s="70"/>
+      <c r="G62" s="70"/>
+      <c r="H62" s="70"/>
+      <c r="I62" s="70"/>
+      <c r="J62" s="46"/>
+      <c r="K62" s="46"/>
+      <c r="L62" s="46"/>
+      <c r="M62" s="46"/>
+      <c r="N62" s="46"/>
+      <c r="O62" s="46"/>
+      <c r="P62" s="46"/>
       <c r="Q62" s="13"/>
     </row>
     <row r="63" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SWE\PO5_LSAN\SW deliveries log\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="180">
   <si>
     <t>Team Lead: Youssef Kamal</t>
   </si>
@@ -556,6 +551,9 @@
   </si>
   <si>
     <t>3 days</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
@@ -1153,6 +1151,18 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1165,18 +1175,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1395,8 +1393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1416,74 +1414,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="61" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="61" t="s">
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="61" t="s">
+      <c r="H1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="65"/>
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
       <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -2353,7 +2351,7 @@
       <c r="N26" s="21"/>
       <c r="O26" s="21"/>
       <c r="P26" s="10"/>
-      <c r="Q26" s="62" t="s">
+      <c r="Q26" s="70" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2392,7 +2390,7 @@
       <c r="N27" s="52"/>
       <c r="O27" s="21"/>
       <c r="P27" s="10"/>
-      <c r="Q27" s="62"/>
+      <c r="Q27" s="70"/>
     </row>
     <row r="28" spans="1:17" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="44" t="s">
@@ -2453,16 +2451,18 @@
       <c r="G29" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="H29" s="54"/>
+      <c r="H29" s="54" t="s">
+        <v>168</v>
+      </c>
       <c r="I29" s="55" t="s">
-        <v>68</v>
+        <v>179</v>
       </c>
       <c r="J29" s="23"/>
       <c r="K29" s="23"/>
       <c r="L29" s="23"/>
       <c r="M29" s="21"/>
-      <c r="N29" s="63"/>
-      <c r="O29" s="64"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="57"/>
       <c r="P29" s="10"/>
       <c r="Q29" s="12"/>
     </row>
@@ -2525,16 +2525,18 @@
       <c r="G31" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="H31" s="23"/>
+      <c r="H31" s="23" t="s">
+        <v>168</v>
+      </c>
       <c r="I31" s="22" t="s">
-        <v>68</v>
+        <v>179</v>
       </c>
       <c r="J31" s="23"/>
       <c r="K31" s="23"/>
       <c r="L31" s="23"/>
       <c r="M31" s="21"/>
       <c r="N31" s="21"/>
-      <c r="O31" s="65"/>
+      <c r="O31" s="58"/>
       <c r="P31" s="10"/>
       <c r="Q31" s="12"/>
     </row>
@@ -2570,7 +2572,7 @@
       <c r="M32" s="21"/>
       <c r="N32" s="21"/>
       <c r="O32" s="21"/>
-      <c r="P32" s="66"/>
+      <c r="P32" s="59"/>
       <c r="Q32" s="12"/>
     </row>
     <row r="33" spans="1:17" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2595,9 +2597,11 @@
       <c r="G33" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="H33" s="23"/>
+      <c r="H33" s="45">
+        <v>43833</v>
+      </c>
       <c r="I33" s="22" t="s">
-        <v>68</v>
+        <v>179</v>
       </c>
       <c r="J33" s="23"/>
       <c r="K33" s="23"/>
@@ -2605,7 +2609,7 @@
       <c r="M33" s="21"/>
       <c r="N33" s="21"/>
       <c r="O33" s="21"/>
-      <c r="P33" s="67"/>
+      <c r="P33" s="60"/>
       <c r="Q33" s="12"/>
     </row>
     <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2640,7 +2644,7 @@
       <c r="M34" s="21"/>
       <c r="N34" s="21"/>
       <c r="O34" s="21"/>
-      <c r="P34" s="68"/>
+      <c r="P34" s="61"/>
       <c r="Q34" s="12"/>
     </row>
     <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2675,7 +2679,7 @@
       <c r="M35" s="21"/>
       <c r="N35" s="21"/>
       <c r="O35" s="21"/>
-      <c r="P35" s="68"/>
+      <c r="P35" s="61"/>
       <c r="Q35" s="12"/>
     </row>
     <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3277,17 +3281,17 @@
       <c r="Q61" s="12"/>
     </row>
     <row r="62" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="69"/>
-      <c r="B62" s="70"/>
+      <c r="A62" s="62"/>
+      <c r="B62" s="63"/>
       <c r="C62" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="D62" s="70"/>
-      <c r="E62" s="70"/>
-      <c r="F62" s="70"/>
-      <c r="G62" s="70"/>
-      <c r="H62" s="70"/>
-      <c r="I62" s="70"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="63"/>
+      <c r="F62" s="63"/>
+      <c r="G62" s="63"/>
+      <c r="H62" s="63"/>
+      <c r="I62" s="63"/>
       <c r="J62" s="46"/>
       <c r="K62" s="46"/>
       <c r="L62" s="46"/>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SWE\PO5_LSAN\SW deliveries log\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="181">
   <si>
     <t>Team Lead: Youssef Kamal</t>
   </si>
@@ -554,6 +559,9 @@
   </si>
   <si>
     <t>done</t>
+  </si>
+  <si>
+    <t>In progress</t>
   </si>
 </sst>
 </file>
@@ -1393,8 +1401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="C28" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2564,7 +2572,7 @@
       </c>
       <c r="H32" s="23"/>
       <c r="I32" s="6" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="J32" s="23"/>
       <c r="K32" s="23"/>
@@ -2597,11 +2605,9 @@
       <c r="G33" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="H33" s="45">
-        <v>43833</v>
-      </c>
+      <c r="H33" s="45"/>
       <c r="I33" s="22" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J33" s="23"/>
       <c r="K33" s="23"/>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="180">
   <si>
     <t>Team Lead: Youssef Kamal</t>
   </si>
@@ -559,9 +559,6 @@
   </si>
   <si>
     <t>done</t>
-  </si>
-  <si>
-    <t>In progress</t>
   </si>
 </sst>
 </file>
@@ -1401,8 +1398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C28" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2607,7 +2604,7 @@
       </c>
       <c r="H33" s="45"/>
       <c r="I33" s="22" t="s">
-        <v>180</v>
+        <v>53</v>
       </c>
       <c r="J33" s="23"/>
       <c r="K33" s="23"/>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -1399,7 +1399,7 @@
   <dimension ref="A1:S1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2602,7 +2602,9 @@
       <c r="G33" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="H33" s="45"/>
+      <c r="H33" s="45">
+        <v>43892</v>
+      </c>
       <c r="I33" s="22" t="s">
         <v>53</v>
       </c>
@@ -2637,9 +2639,11 @@
       <c r="G34" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="H34" s="23"/>
+      <c r="H34" s="45">
+        <v>43896</v>
+      </c>
       <c r="I34" s="6" t="s">
-        <v>68</v>
+        <v>179</v>
       </c>
       <c r="J34" s="23"/>
       <c r="K34" s="23"/>
@@ -2672,9 +2676,11 @@
       <c r="G35" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="H35" s="23"/>
+      <c r="H35" s="45">
+        <v>43896</v>
+      </c>
       <c r="I35" s="22" t="s">
-        <v>68</v>
+        <v>179</v>
       </c>
       <c r="J35" s="23"/>
       <c r="K35" s="23"/>
